--- a/gerar_html/prescricoes.xlsx
+++ b/gerar_html/prescricoes.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ac289667d0e8ccd/Documentos/Saúde/Prescrições/Prescrição_python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1AC289667D0E8CCD/Documentos/Saúde/Prescrições/Prescrição_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="816" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67584756-4D2B-440A-975C-F0779EA77809}"/>
+  <xr:revisionPtr revIDLastSave="1248" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8318A9-A850-4E3E-A5E7-486C4B84D6DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="4" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicamentos" sheetId="1" r:id="rId1"/>
     <sheet name="ExameFisicos" sheetId="2" r:id="rId2"/>
-    <sheet name="Procedimentos" sheetId="3" r:id="rId3"/>
-    <sheet name="Orientacoes" sheetId="4" r:id="rId4"/>
-    <sheet name="Outros" sheetId="5" r:id="rId5"/>
+    <sheet name="Evolucoes" sheetId="6" r:id="rId3"/>
+    <sheet name="Kit_medicamentos" sheetId="7" r:id="rId4"/>
+    <sheet name="Procedimentos" sheetId="3" r:id="rId5"/>
+    <sheet name="Orientacoes" sheetId="4" r:id="rId6"/>
+    <sheet name="Outros" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="Renovação_receita" localSheetId="4">Outros!$D$4</definedName>
+    <definedName name="Renovação_receita" localSheetId="6">Outros!$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="460">
   <si>
     <t>NomeBusca</t>
   </si>
@@ -54,10 +56,6 @@
     <t>Omeprazol</t>
   </si>
   <si>
-    <t>1. Omeprazol 20 mg - 1 caixa
-Tomar 1 cápsula pela manhã em jejum, 30 minutos antes da refeição</t>
-  </si>
-  <si>
     <t>PrescricaoCompleta</t>
   </si>
   <si>
@@ -70,20 +68,12 @@
     <t>Antiulceroso</t>
   </si>
   <si>
-    <t>1 – Dipirona 500 mg _______________________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor ou febre</t>
-  </si>
-  <si>
     <t>Paracetamol</t>
   </si>
   <si>
     <t>Diclofenaco</t>
   </si>
   <si>
-    <t>1 – Diclofenaco 50 mg _____________________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas por até 5 dias</t>
-  </si>
-  <si>
     <t>Analgésico</t>
   </si>
   <si>
@@ -99,10 +89,6 @@
     <t>Analgésico opioide</t>
   </si>
   <si>
-    <t>1 – Naproxeno 250 mg ______________________1 caixa
-Tomar 1 comprimido de 12 em 12 horas por até 5 dias</t>
-  </si>
-  <si>
     <t>Escopolamina</t>
   </si>
   <si>
@@ -130,44 +116,24 @@
     <t>Ibuprofeno</t>
   </si>
   <si>
-    <t>1 - Ibuprofeno 600 mg _________________________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas por 5 dias</t>
-  </si>
-  <si>
     <t>Soro fisiológico</t>
   </si>
   <si>
     <t>Budesonida</t>
   </si>
   <si>
-    <t>1 - Budesonida spray nasal 32 mcg _______________ 1 frasco
-Aplicar 1 jato em cada narina de 12 em 12 horas por no máximo 7 dias</t>
-  </si>
-  <si>
-    <t>1 - Budesonida spray nasal 50 mcg _______________ 1 frasco
-Aplicar 1 jato em cada narina de 12 em 12 horas por no máximo 7 dias</t>
-  </si>
-  <si>
     <t>Nafazolina</t>
   </si>
   <si>
     <t>Salbutamol</t>
   </si>
   <si>
-    <t>1 – Salbutamol 100 mcg aerossol ______________ 1 frasco
-Inalar 4 jatos de 4 em 4 horas por 2 dias, e após, usar de chiado no peito ou falta de ar</t>
-  </si>
-  <si>
     <t>Agonista beta-2-adrenérgico</t>
   </si>
   <si>
     <t>Prednisona</t>
   </si>
   <si>
-    <t>1 – Prednisona 20 mg ________________ 10 cp
-Tomar 2 cp por dia por 5 dias</t>
-  </si>
-  <si>
     <t>Corticoide</t>
   </si>
   <si>
@@ -180,21 +146,9 @@
     <t>Guaco</t>
   </si>
   <si>
-    <t>1 – Chá de guaco 30 g __________________________________ 1 envelope
-Infundir 1 colher de sopa (3 g) para cada 150ml de água. Tomar 3 vezes ao dia</t>
-  </si>
-  <si>
-    <t>1 – Guaco xarope ______________________ 1 frasco
-Tomar 10 ml de 8 em 8 horas por 5 dias</t>
-  </si>
-  <si>
     <t>tosse</t>
   </si>
   <si>
-    <t>1 – Sulfato de neomicina 0,5 % + sulfato de polimixina B + hidrocortisona 1 % _______ 1 frasco
-Aplicar 4 gotas no(s) ouvido(s) acometidos de 6/6 horas por 10 dias</t>
-  </si>
-  <si>
     <t>Antibiótico, corticoide</t>
   </si>
   <si>
@@ -207,17 +161,9 @@
     <t>Ciprofloxacino, dexametasona</t>
   </si>
   <si>
-    <t>1 – Ciprofloxacino + dexametasona solução tópica ______ 1 frasco
-Aplicar 4 gotas no ouvido acometido de 12/12h por 7 dias</t>
-  </si>
-  <si>
     <t>Loratadina</t>
   </si>
   <si>
-    <t>1 – Loratadina 10 mg _____________ 1 caixa
-Tomar 1 comprimido por dia</t>
-  </si>
-  <si>
     <t>Anti-histamínico</t>
   </si>
   <si>
@@ -227,41 +173,21 @@
     <t>Tenoxicam</t>
   </si>
   <si>
-    <t>1 – Tenoxicam 20 mg _________________________ 1 caixa
-Tomar 1 comprimido por dia por até 5 dias</t>
-  </si>
-  <si>
     <t>Ciclobenzaprina</t>
   </si>
   <si>
-    <t>1 – Ciclobenzaprina 10 mg __________________ 1 caixa
-Tomar 1 comprimido por dia à noite por 7 dias</t>
-  </si>
-  <si>
     <t>Relaxante muscular</t>
   </si>
   <si>
     <t>dor muscular</t>
   </si>
   <si>
-    <t>1 – Codeina 3 mg/ml _____________ 1 frasco
-Tomar 10 ml de 6 em 6 horas se dor</t>
-  </si>
-  <si>
     <t>dor, tosse</t>
   </si>
   <si>
     <t>Tramadol</t>
   </si>
   <si>
-    <t>1 – Tramadol 50 mg ______________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor</t>
-  </si>
-  <si>
-    <t>1 – Tramadol 100 mg _____________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor</t>
-  </si>
-  <si>
     <t>Antiemético</t>
   </si>
   <si>
@@ -271,72 +197,36 @@
     <t>Dimenidrinato</t>
   </si>
   <si>
-    <t>1 – Dimenidrinato 50 mg ________________ 10 cp
-Tomar 1 comprimido de 6 em 6 horas se náuseas ou vômitos</t>
-  </si>
-  <si>
     <t>Dimenidrinato, piridoxina</t>
   </si>
   <si>
-    <t>1 – Dimenidrinato + piridoxina 50/10 mg ___ 10 cp
-Tomar 1 comprimido de 6 em 6 horas se náuseas ou vômitos</t>
-  </si>
-  <si>
     <t>Ivermectina</t>
   </si>
   <si>
-    <t>1 – Ivermectina 6 mg _______________ __ comprimido(s)
-Tomar __ comprimido(s). Após 1 semana tomar __ comprimido(s)</t>
-  </si>
-  <si>
     <t>Antiparasitário</t>
   </si>
   <si>
     <t>escabiose</t>
   </si>
   <si>
-    <t>1. Amoxicilina+clavulanato 500/125 mg ______ ___ comprimidos
-Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
-  </si>
-  <si>
     <t>Amoxicilina</t>
   </si>
   <si>
-    <t>1 – Amoxicilina 500 mg ______________________ __ comprimidos
-Tomar 1 comprimido de 8 em 8 horas por __ dias</t>
-  </si>
-  <si>
     <t>Cefalexina</t>
   </si>
   <si>
-    <t>1 – Cefalexina 500 mg ______________________ __ comprimidos
-Tomar 1 comprimido de 6 em 6 horas por __ dias</t>
-  </si>
-  <si>
     <t>Metronidazol</t>
   </si>
   <si>
-    <t>1 – Metronidazol 400 mg ____________________ 20 comprimidos
-Tomar 1 comprimido de 8 em 8 horas por 5 dias</t>
-  </si>
-  <si>
     <t>Ciprofloxacino</t>
   </si>
   <si>
-    <t>1 – Ciprofloxacino 250 mg _____________________ ___ comprimidos
-Tomar 1 comprimido de 12 em 12 horas por ___ dias</t>
-  </si>
-  <si>
     <t>Ceftriaxona</t>
   </si>
   <si>
     <t>Fosfomicina</t>
   </si>
   <si>
-    <t>1 – Fosfomicina 3 g ________________ 1 sache
-Tomar 1 sache diluido em água. Dose única</t>
-  </si>
-  <si>
     <t>infecção, ITU</t>
   </si>
   <si>
@@ -344,10 +234,6 @@
   </si>
   <si>
     <t>Sacarato de hidróxido férrico</t>
-  </si>
-  <si>
-    <t>1 – Sacarato de hidróxido férrico (ex..: noripurum) __________ __ amp(s)
-Diluir ___ ampolas em ___ de S.F.0,9%. Correr lentamente. Repetir a cada uma semana (__ semanas de duração)</t>
   </si>
   <si>
     <t>Ferro</t>
@@ -422,22 +308,6 @@
   </si>
   <si>
     <t>RCP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circunstâncias do Evento:
-• Hora e local do início da parada cardíaca.
-• Condição do paciente no momento da parada (ex.: apneia, ausência de pulso, inconsciência).
-Intervenções Realizadas:
-• Compressões Torácicas: Frequência, profundidade e qualidade das compressões (ex.: "compressões realizadas a uma frequência de 100-120/min e profundidade de 5-6 cm").
-• Ventilação: Método utilizado (ex.: ventilação boca-a-máscara, bolsa-válvula-máscara, intubação endotraqueal) e frequência das ventilações.
-• Desfibrilação: Número de choques administrados, energia utilizada (ex.: "choque de 200J administrado") e resposta do paciente.
-• Medicações: Tipo, dose e via de administração de medicamentos (ex.: "1 mg de epinefrina IV a cada 3-5 minutos").
-Resultados da RCP:
-Retorno da Circulação Espontânea (RCE): Hora do RCE e condição do paciente após o RCE (ex.: "RCE obtido às 14:35, paciente com pulso palpável e pressão arterial de 90/60 mmHg").
-Interrupção da RCP: Hora e motivo da interrupção (ex.: "RCP interrompida às 14:50 devido a ordem de não ressuscitar").
-Cuidados Pós-Parada:
-• Medidas de suporte hemodinâmico e ventilatório.
-• Gerenciamento da temperatura alvo e outras intervenções crítica </t>
   </si>
   <si>
     <t>Ressuscitação cardiopulmonar</t>
@@ -549,19 +419,6 @@
     <t>Sutura</t>
   </si>
   <si>
-    <t>Uso oral 
-1 – Dipirona 500 mg _______________________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor ou febre
-2 – Ibuprofeno 600 mg _____________________ 1 caixa 
-Tomar 1 comprimido de 8 em 8 horas por até 5 dias
-Uso tópico
-1 – Clorexidina 1% solução ___________________ 1 frasco
-Aplicar 2 vezes ao dia em lesão
-Obs.: Como curativo utilizar gazes ou outros curativos específicos. Usar esparadrapo para fixar. 
-Obs2.: Deixa a ferida com o curativo inicial por 24h. Realizar a troca de curativo 2 vezes ao dia. Na troca de curativo realizar limpeza com água e antisséptico (sabão neutro ou solução antisséptica); Sempre deixar a ferida coberta. Em caso de surgimento de edema, vermelhidão ou pus, ou seja, sinais de infecção procurar assistência médica. 
-Obs3.: Retirar os pontos com _ dias</t>
-  </si>
-  <si>
     <t>Renovação Uso Contínuo</t>
   </si>
   <si>
@@ -627,27 +484,15 @@
     <t>Expectorante</t>
   </si>
   <si>
-    <t>1 – Levofloxacino 750 mg _______________ ___ comprimidos
-Tomar 1 comprimido por dia por ___ dias</t>
-  </si>
-  <si>
     <t>Levofloxacino</t>
   </si>
   <si>
     <t>Sulfametoxazol, trimetoprima</t>
   </si>
   <si>
-    <t>1 - Sulfametoxazol+trimetoprima 400/80mg ________ __ comprimidos
-Tomar ___ comprimidos de _____ horas por ___ dias</t>
-  </si>
-  <si>
     <t>Miconazol</t>
   </si>
   <si>
-    <t>1 – Miconazol 2% creme ________ 1 tubo
-Usar 1 aplicador a noite por 7 dias</t>
-  </si>
-  <si>
     <t>Antifúngico</t>
   </si>
   <si>
@@ -657,17 +502,9 @@
     <t>Fluconazol</t>
   </si>
   <si>
-    <t>1 – Fluconazol 150 mg __________ 1 cp
-Tomar 1 comprimido. Dose única</t>
-  </si>
-  <si>
     <t>Carmelose</t>
   </si>
   <si>
-    <t>1 – Carmelose colírio _________ 1 frasco
-Aplicar de 4 a 8 vezes ao dia se ardência ou secura nos olhos</t>
-  </si>
-  <si>
     <t>Lubrificante</t>
   </si>
   <si>
@@ -677,44 +514,24 @@
     <t>Clorexidina</t>
   </si>
   <si>
-    <t>1 – Clorexidina 1% solução ___________________ 1 frasco
-Aplicar 2 vezes ao dia em lesão</t>
-  </si>
-  <si>
     <t>Antisséptico</t>
   </si>
   <si>
     <t>Nimesulida</t>
   </si>
   <si>
-    <t>1 – Nimesulida 100 mg_________________________ 1 caixa
-Tomar 1 comprimido de 12 em 12 horas por até 5 dias</t>
-  </si>
-  <si>
     <t>Simeticona</t>
   </si>
   <si>
-    <t>1 - Simeticona 40 mg __________________ 1 caixa
-Tomar 1 comprimido de 8 em 8h por 3 dias</t>
-  </si>
-  <si>
     <t>Antifisético</t>
   </si>
   <si>
     <t>Bromoprida</t>
   </si>
   <si>
-    <t>1 - Bromoprida 10 mg _________________ 1 caixa
-Tomar 1 comprimido de 8 em 8h se náusea</t>
-  </si>
-  <si>
     <t>Hidróxido de alumínio, hidróxido de magnésio</t>
   </si>
   <si>
-    <t>1 - Hidróxido de alumínio + hidróxido de magnésio _________ 1 frasco
-Tomar 1 colher 30 min antes das refeições principais</t>
-  </si>
-  <si>
     <t>Antiácido</t>
   </si>
   <si>
@@ -724,20 +541,12 @@
     <t>Sais de reidratação oral</t>
   </si>
   <si>
-    <t>1 - Soro de reidratação oral ________________ _ envelopes
-Diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar 1 copo para cada evacuação ou vômitos</t>
-  </si>
-  <si>
     <t>diarreia</t>
   </si>
   <si>
     <t>Lactulose</t>
   </si>
   <si>
-    <t>1 – Lactulose 667 mg/ml ________________________ 1 frasco
-Tomar 15 ml de 12 em 12 horas até melhora das fezes</t>
-  </si>
-  <si>
     <t>Laxante</t>
   </si>
   <si>
@@ -750,28 +559,16 @@
     <t>Metoclopramida</t>
   </si>
   <si>
-    <t>1 – Metoclopramida 10 mg _____________ 20 cp
-Tomar 1 comprimido de 8 em 8 horas se náuseas ou vômitos</t>
-  </si>
-  <si>
     <t>Ondansetrona</t>
   </si>
   <si>
     <t>Dexametasona</t>
   </si>
   <si>
-    <t>1 - Dexametasona creme ___________________________ 1 tubo
-Aplicar 2 vezes ao dia por ___</t>
-  </si>
-  <si>
     <t>dermatite</t>
   </si>
   <si>
     <t>Hidrocortisona</t>
-  </si>
-  <si>
-    <t>1 - Hidrocortisona creme ____________________________ 1 tubo
-Aplicar 2 vezes ao dia por ___ dias. Realizar leve fricção</t>
   </si>
   <si>
     <t>Dengue</t>
@@ -804,54 +601,18 @@
 Beba bastante líquidos!!!</t>
   </si>
   <si>
-    <t>1 – Salbutamol 100 mcg aerossol ______________ 1 frasco
-Inalar 4 jatos se desconforto respiratório pela asma</t>
-  </si>
-  <si>
-    <t>1 - Budesonida 50 mcg aerossol ______________ 1 frasco
-Inalar 4 puffs por dia</t>
-  </si>
-  <si>
-    <t>1 - Budesonida 200 mcg aerossol ______________ 1 frasco
-Inalar 1 puffs por dia</t>
-  </si>
-  <si>
     <t>Beclometasona</t>
   </si>
   <si>
-    <t>1 – Beclometasona 250 mcg aerossol ___________ 1 frasco
-Inalar 1 jato de 12 em 12 horas por dia</t>
-  </si>
-  <si>
     <t>Formoterol</t>
   </si>
   <si>
-    <t>1 – Formoterol 6 mcg aerossol _________________ 1 frasco
-Inalar 1 jato por dia. Máximo de 8 doses por dia</t>
-  </si>
-  <si>
-    <t>1 – Formoterol 12 mcg aerossol _________________ 1 frasco
-Inalar 1 jato por dia. Máximo de 4 doses por dia</t>
-  </si>
-  <si>
-    <t>1 - Fumarato de formoterol + budesonida 6/200 mcg capsula para inalação ____ 1 frasco
-Inalar 1 jato por dia</t>
-  </si>
-  <si>
     <t>Formoterol, budesonida</t>
   </si>
   <si>
-    <t>1 - Fumarato de formoterol + budesonida 12/400 mcg capsula para inalação ____ 1 frasco
-Inalar 1 jato por dia</t>
-  </si>
-  <si>
     <t>Formoterol, beclometasona</t>
   </si>
   <si>
-    <t>1 - Dipropionato de beclometasona + fumarato de formoterol 100/6 mcg aerossol ___ 1 frasco
-Inalar 1 jato de 12 em 12 horas por dia</t>
-  </si>
-  <si>
     <t>Agonista beta-2-adrenérgico, corticoide</t>
   </si>
   <si>
@@ -861,31 +622,10 @@
     <t>rolha de cerumem</t>
   </si>
   <si>
-    <t>Macrogol 3500</t>
-  </si>
-  <si>
-    <t>1 – Macrogol 3500 ____________________________ 1 caixa/envolopes
-Dissolver 1 (um) envelope em um copo com água e tomar 1 vez ao dia. Após o preparo, consumir imediatamente por via oral.</t>
-  </si>
-  <si>
     <t>Psyllium</t>
   </si>
   <si>
-    <t>1 – Psyllium __________________________________ 1 caixa
-Tomar 7 g ou 1 colhe de chá em 240 ml de água ou bebida favorita, 2 vezes ao dia. Misture bem e beba imediatamente. Para melhor efeito tome um copo adicional de água.</t>
-  </si>
-  <si>
-    <t>1 – Óleo mineral ______________________________ 1 frasco
-Tomar 1 colher de sopa (15 ml) ao deitar a noite
-Obs.: Se não melhora, pode aumentar para 2 (duas) colheres de sopa à noite e 1 (uma) pela manhã</t>
-  </si>
-  <si>
     <t>Macrogol 3350, bicarbonato de sódio, cloreto de sódio, cloreto de potássio</t>
-  </si>
-  <si>
-    <t>1 - Muvinlax (Macrogol 3350 + bicarbanato de sódio + cloreto de sódio + cloreto de potássio)
-___________________________________ 1 frasco
-Tomar 1 sache por dia até melhora das fezes. Diluir 1 sache em 1 copo com água, chá ou suco</t>
   </si>
   <si>
     <t>Policresuleno, cinchocaína</t>
@@ -904,10 +644,6 @@
     <t>Diosmina, hesperidina</t>
   </si>
   <si>
-    <t>1 – Diosmina + hesperidina 450/50 mg ______ 1 caixa
-Tomar 1 comprimido de 12 em 12 horas até melhora dos sintomas</t>
-  </si>
-  <si>
     <t>antivaricoso</t>
   </si>
   <si>
@@ -917,10 +653,6 @@
     <t>Triancinolona</t>
   </si>
   <si>
-    <t>1 – Triancinolona acetonida 1mg/g ________________ 1 tubo
-Aplicar sobre a lesão até de 8 em 8 horas por 7 dias após as refeições.</t>
-  </si>
-  <si>
     <t>Corticoide tópico</t>
   </si>
   <si>
@@ -933,17 +665,9 @@
     <t>Mupirocina</t>
   </si>
   <si>
-    <t>1 – Mupirocina 2% creme ______ 1 tubo
-Aplicar nas lesões de 8 em 8 horas por 5 dias</t>
-  </si>
-  <si>
     <t>Água boricada</t>
   </si>
   <si>
-    <t>1 – Água boricada 3% _______________________ 1 frasco
-Aplicar 2 vezes ao dia em lesão</t>
-  </si>
-  <si>
     <t>ferida</t>
   </si>
   <si>
@@ -956,52 +680,24 @@
     <t>Permetrina</t>
   </si>
   <si>
-    <t>1 – Permetrina 5% loção _________________ 1 frasco
-Aplicar sobre o corpo (Não aplicar em região de cabeça) à noite. Enxaguar pela manhã. Repetir por 3 dias. Após 1 semana, repetir por mais 3 dias.</t>
-  </si>
-  <si>
     <t>Dexclorfeniramina</t>
   </si>
   <si>
-    <t>1 – Dexclorfeniramina 2 mg ________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas</t>
-  </si>
-  <si>
     <t>alergia</t>
   </si>
   <si>
     <t>Hidroxizina</t>
   </si>
   <si>
-    <t>1 – Hidroxizina 25 mg _______________________________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas</t>
-  </si>
-  <si>
     <t>Prometazina</t>
   </si>
   <si>
-    <t>1 – Prometazina 25 mg ______________________________ 1 caixa
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
     <t>Desloratadina</t>
   </si>
   <si>
-    <t>1 – Desloratadina 5 mg ______________________________ 1 caixa
-Tomar 1 comprimido por dia</t>
-  </si>
-  <si>
     <t>Betametasona</t>
   </si>
   <si>
-    <t>1 - Betametasona 0,1mg/ml ________________________ 1 frasco
-Tomar 10 ml de 8 em 8 horas por 4 dias</t>
-  </si>
-  <si>
-    <t>1 – Prednisona 5 mg _______________________________ __ CPs
-Tomar ___ comprimido (s) por dia por ___ dias</t>
-  </si>
-  <si>
     <t>Sumatriptina</t>
   </si>
   <si>
@@ -1014,32 +710,12 @@
     <t>Cinarizina</t>
   </si>
   <si>
-    <t>1 – Cinarizina 25 mg ____________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas por 7 dias</t>
-  </si>
-  <si>
-    <t>1 – Flunarizina 10 mg ____________ 1 caixa
-Tomar 1 comprimido por dia por 7 dias</t>
-  </si>
-  <si>
-    <t>1 – Sumatriptana 50 mg __________ 1 caixa
-Tomar 1 comprimido se dor de cabeça intensa</t>
-  </si>
-  <si>
-    <t>1 – Permetrina 1% xampu ________________ 1 frasco
-Após lavar cabelo, deve-se aplicar este produto nos cabelos úmidos, cobrindo todo o couro cabeludo, e esfregar abundantemente em toda a extensão; O produto deve agir por 10 minutos. Passar o pente fino para a remoção dos piolhos e das lêndeas; Enxaguar o cabelo com água morna e enxugar com a toalha; Repetir após 7 dias, se houver necessidade; A quantidade necessária do produto depende do volume e tamanho dos cabelos, pode ser necessário usar o frasco inteiro e em alguns casos, de cabelo mais longos, pode ser necessário mais de um frasco;</t>
-  </si>
-  <si>
     <t>vertigem</t>
   </si>
   <si>
     <t>Prednisolona</t>
   </si>
   <si>
-    <t>1 - Prednisolona 0,1% colírio ______________ 1 frasco
-Aplicar __ gotas de ___ horas por 5 dias</t>
-  </si>
-  <si>
     <t>Cetoconazol</t>
   </si>
   <si>
@@ -1049,10 +725,6 @@
     <t>Hidroclorotiazida</t>
   </si>
   <si>
-    <t>1 – Hidroclorotiazida 25 mg _____________ 30 cp/mês
-Tomar 1 comprimido por dia pela manhã</t>
-  </si>
-  <si>
     <t>Anti-hipertensivo</t>
   </si>
   <si>
@@ -1062,34 +734,18 @@
     <t>Indapamida</t>
   </si>
   <si>
-    <t>1 – Indapamida 1,5 mg _________________ 30 cp/mês
-Tomar 1 comprimido por dia pela manhã</t>
-  </si>
-  <si>
-    <t>1 – Indapamida 2,5 mg _________________ 30 cp/mês
-Tomar 1 comprimido por dia pela manhã</t>
-  </si>
-  <si>
     <t>Clortalidona</t>
   </si>
   <si>
     <t>Espironolactona</t>
   </si>
   <si>
-    <t>1 – Espironolactona 25 mg ______________ 30 cp/mês
-Tomar 1 comprimido por dia pela manhã</t>
-  </si>
-  <si>
     <t>Anti-hipertensivo, diurético tiazídico</t>
   </si>
   <si>
     <t>Losartana</t>
   </si>
   <si>
-    <t>1 – Losartana 50 mg __________________ 30 cp/mês
-Tomar 1 comprimido por dia</t>
-  </si>
-  <si>
     <t>Anti-hipertensivo, BRA</t>
   </si>
   <si>
@@ -1102,34 +758,18 @@
     <t>Enalapril</t>
   </si>
   <si>
-    <t>1 – Enalapril 10 mg ___________________ 30 cp/mês
-Tomar 1 comprimido por dia</t>
-  </si>
-  <si>
     <t>Metoprolol</t>
   </si>
   <si>
-    <t>1 – Succinato de metoprolol 50 mg _______ 30 cp/mês
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
     <t>Anti-hipertensivo, BB</t>
   </si>
   <si>
     <t>Anlodipino</t>
   </si>
   <si>
-    <t>1 – Anlodipino 5 mg _____________ 30 cp/mês
-Tomar 1 (um) comprimido por dia</t>
-  </si>
-  <si>
     <t>Anti-hipertensivo, BCC</t>
   </si>
   <si>
-    <t>1 – Anlodipino 5 mg _____________ 60 cp/mês
-Tomar 1 (um) comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
     <t>emoliente otológico</t>
   </si>
   <si>
@@ -1148,26 +788,6 @@
     <t>Carvedilol</t>
   </si>
   <si>
-    <t>1 – Carvedilol 12,5 mg ____ 60 cp/mês
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
-    <t>1 – Carvedilol 6,25 mg ____ 60 cp/mês
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
-    <t>1 – Carvedilol 3,125 mg ____ 60 cp/mês
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
-    <t>1 – Albendazol 400 mg ______ 3 cp
-Tomar 1 comprimido por dia por 3 dias</t>
-  </si>
-  <si>
-    <t>1 – Nitazoxanida 500 mg _____ 1 cp
-Tomar 1 comprimido de 12 em 12 horas por 3 dias</t>
-  </si>
-  <si>
     <t>Anti-helmíntico</t>
   </si>
   <si>
@@ -1201,107 +821,34 @@
     <t>Ácido mefenâmico</t>
   </si>
   <si>
-    <t>1 – Ácido mefenâmico 500 mg __________________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas</t>
-  </si>
-  <si>
     <t>dor, dismenorreia, menorragia</t>
   </si>
   <si>
-    <t>1 – Insulina NPH 100 UI/ml ________________ 1 frasco-ampola
-Aplicar 10 UI à noite antes de deitar-se</t>
-  </si>
-  <si>
     <t>Análogo de insulina</t>
   </si>
   <si>
     <t>dm</t>
   </si>
   <si>
-    <t>1 – Insulina NPH 100 UI/ml ________________ 1 frasco-ampola
-Aplicar 10 UI pela manhã e 10 UI à noite antes de deitar-se</t>
-  </si>
-  <si>
-    <t>1 – Insulina NPH 100 UI/ml ________________ ___ frasco-ampola
-Aplicar ___ UI pela manhã (em torno de 8h00)
-Aplicar ___ UI à tarde (em torno de 14h00)
-Aplicar ___ UI à noite (em torno de 20h00)</t>
-  </si>
-  <si>
-    <t>1 – Insulina NPH 100 UI/ml ________________ 1 carpule/mês
-Aplicar 10 UI à noite antes de deitar-se</t>
-  </si>
-  <si>
     <t>dm, carpule</t>
   </si>
   <si>
-    <t>1 – Insulina NPH 100 UI/ml ________________ 1 carpule/mês
-Aplicar 10 UI pela manhã (às 8h) e aplicar 10 UI à noite antes de deitar-se</t>
-  </si>
-  <si>
-    <t>1 – Insulina NPH 100 UI/ml ________________ ___ carpule
-Aplicar ___ UI pela manhã (em torno de 8h00)
-Aplicar ___ UI à tarde (em torno de 14h00)
-Aplicar ___ UI à noite (em torno de 20h00)</t>
-  </si>
-  <si>
     <t>Insulina humana regular</t>
   </si>
   <si>
     <t>Insulina humana NPH</t>
   </si>
   <si>
-    <t>1 – Insulina humana regular 100 UI/ml ________ ___ frasco(s)
-Aplicar ___ antes do café da manhã
-Aplicar ___ antes do almoço
-Aplicar ___ antes da janta</t>
-  </si>
-  <si>
-    <t>1 – Insulina humana regular 100 UI/ml ________ ___ carpule(s)
-Aplicar ___ antes do café da manhã
-Aplicar ___ antes do almoço
-Aplicar ___ antes da janta</t>
-  </si>
-  <si>
     <t>Biguanida</t>
   </si>
   <si>
     <t>Gliclazida</t>
   </si>
   <si>
-    <t>1 – Gliclazida 30 mg _________________ 30 cp/mês
-Tomar 1 comprimido no café da manhã</t>
-  </si>
-  <si>
     <t>Secretagogos</t>
   </si>
   <si>
-    <t>1 – Gliclazida 60 mg _________________ 30 cp/mês
-Tomar 1 comprimido no café da manhã</t>
-  </si>
-  <si>
     <t>Síndrome gripal</t>
-  </si>
-  <si>
-    <t>Doença</t>
-  </si>
-  <si>
-    <t>Uso oral
-1 – Dipirona 500 mg _______________________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor ou febre
-Obs.: Pode tomar até 2 comprimidos de 6 em 6 horas
-Obs. 2: Se não melhora somente com a dipirona, continue tomando-a junto com o anti-inflamatório abaixo
-1 - Ibuprofeno 600 mg _________________________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas por 5 dias
-1 – Loratadina 10 mg _____________ 1 caixa
-Tomar 1 comprimido por dia
-1 – Guaco xarope ______________________ 1 frasco
-Tomar 10 ml de 8 em 8 horas por 5 dias
-Uso tópico
-1 - Soro fisiológico 
-Realizar lavagem nasal com soro. Usar seringa
-1 - Budesonida spray nasal 50 mcg _______________ 1 frasco
-Aplicar 1 jato em cada narina de 12 em 12 horas por no máximo 7 dias</t>
   </si>
   <si>
     <t>Admissão ou observação</t>
@@ -1366,9 +913,6 @@
     <t>Evolução, amarela</t>
   </si>
   <si>
-    <t>Paciente em leito de sala amarela, tranquilo, contactuante e acompanhado de. Está estável hemodinamicamente e eupneico em a.a. Há boa dieta via oral. Eliminações de fezes adequadas. Diurese em de bom aspecto e adequada. Apresenta bons sinais vitais e sem disglicemias. Nega dor.</t>
-  </si>
-  <si>
     <t>Albendazol</t>
   </si>
   <si>
@@ -1381,215 +925,978 @@
     <t>Metformina</t>
   </si>
   <si>
-    <t>1 – Naproxeno 500 mg ________________________ 1 caixa
-Tomar 1 comprimido de 12 em 12 horas por até 5 dias</t>
-  </si>
-  <si>
-    <t>1 – Dipirona 500 mg _______________________ 1 caixa
+    <t>1 - Soro fisiológico
+Realizar lavagem nasal com soro. Usar seringa</t>
+  </si>
+  <si>
+    <t>Eletrólitos</t>
+  </si>
+  <si>
+    <t>Realizo antissepsia de ferida. Realizo sutura de forma asséptica. Oriento sobre complicações de ferida. Oriento sobre cuidados de ferida. Prescrevo analgesia; Forneço ___ dias de atestado; Retirada de ponto com ___ dias; Oriento sobre checagem de cartão vacinal para verificar nova dose de vacina de tétano</t>
+  </si>
+  <si>
+    <t>Ambroxol</t>
+  </si>
+  <si>
+    <t>Acetilcisteína</t>
+  </si>
+  <si>
+    <t>Mucolítico</t>
+  </si>
+  <si>
+    <t>Ácido tranexâmico</t>
+  </si>
+  <si>
+    <t>Antifibrinolítico</t>
+  </si>
+  <si>
+    <t>menorreia</t>
+  </si>
+  <si>
+    <t>OrdemPrioridade</t>
+  </si>
+  <si>
+    <t>crise asma</t>
+  </si>
+  <si>
+    <t>crise asma, bronquite</t>
+  </si>
+  <si>
+    <t>FormaFarmaceutica</t>
+  </si>
+  <si>
+    <t>creme</t>
+  </si>
+  <si>
+    <t>solução</t>
+  </si>
+  <si>
+    <t>comprimido</t>
+  </si>
+  <si>
+    <t>solução oral</t>
+  </si>
+  <si>
+    <t>chá</t>
+  </si>
+  <si>
+    <t>tintura</t>
+  </si>
+  <si>
+    <t>ID_Item</t>
+  </si>
+  <si>
+    <t>Paciente Hígido, Contactante, Tranquilo, Sem Doenças Neurológicas. Sala amarela</t>
+  </si>
+  <si>
+    <t>Paciente Hígido, Contactante, Tranquilo, Sem Doenças Neurológicas. Sala vermelha</t>
+  </si>
+  <si>
+    <t>Modelo para Paciente em Ventilação Espontânea com TQT (Sala Amarela/Vermelha)</t>
+  </si>
+  <si>
+    <t>Evolução, TQT</t>
+  </si>
+  <si>
+    <t>Evolução, TQT, O2 suplementar</t>
+  </si>
+  <si>
+    <t>Modelo de Evolução (Exemplo para Paciente com Demência de Base e Infecção Aguda)</t>
+  </si>
+  <si>
+    <t>Modelo de Evolução (Sala Vermelha / UTI)</t>
+  </si>
+  <si>
+    <t>Modelo para Paciente com TQT Recebendo O2 Suplementar ou em Processo de Desmame de VM (ainda com TQT)</t>
+  </si>
+  <si>
+    <t>Evolução, vermelha, IOT</t>
+  </si>
+  <si>
+    <t>UPA – São Sebastiao
+Data: 
+Sala vermelha / Sala amarela
+Evolução
+SES/CNS/CPF:
+Procedência: 
+Contato de familiares/responsáveis:
+DI na UPA e horário:
+.
+#HD
+.
+#HMA
+.
+#HPP
+.
+#MUC
+.
+- Medicações conciliadas: 
+.
+#Dispositivos
+- AVP
+- [Tipo de O2 suplementar]
+- [Dispositivo diurese]
+- CVC
+- SNE
+- TOT
+.
+# Medicações específicas: 
+.
+# Evolução:
+.
+#Ex. físico 
+PA | PAM |FC |FR |Temp |SatO2 em  |HGT
+Peso:
+.
+#Ex. complementares
+=&gt; Lab
+.
+=&gt; ECG
+.
+=&gt; Imagem
+.
+=&gt; Outros
+.
+=&gt; Ex. prévios
+.
+#Pendências 
+.
+#Conduta</t>
+  </si>
+  <si>
+    <t>Sistema respiratório</t>
+  </si>
+  <si>
+    <t>Sistema gastrointestinal</t>
+  </si>
+  <si>
+    <t>Asma</t>
+  </si>
+  <si>
+    <t>Ferimento</t>
+  </si>
+  <si>
+    <t>Sistema hematológico</t>
+  </si>
+  <si>
+    <t>Paracetamol e AINE</t>
+  </si>
+  <si>
+    <t>Dipirona e AINE</t>
+  </si>
+  <si>
+    <t>Dispepsia</t>
+  </si>
+  <si>
+    <t>Paciente em leito de, sob intubação orotraqueal e ventilação mecânica. Hemodinamicamente estável, sem uso de droga vasoativa. Dieta enteral por sonda nasoenteral (SNE). Débito urinário [volume, e.g., 800] mL nas últimas horas via sonda vesical de demora (SVD), aspecto [amarelo claro/turvo/hematúrico]. Eliminações evacuatórias adequadas. Sem distermias, normocárdico, normotenso, sem disglicemias.
+.
+Parâmetros da VM: [Modo], FiO2 [X, e.g., 50]%, PEEP [Y, e.g., 10] cmH2O, [Volume Corrente (VC) [Z, e.g., 420] mL ou Pressão Controlada (PC) [A, e.g., 15] cmH2O acima da PEEP], Frequência Respiratória (FR) irpm.</t>
+  </si>
+  <si>
+    <t>Evolução, déficit neurológico</t>
+  </si>
+  <si>
+    <t>Paciente em leito de [sala amarela/vermelha], acompanhado por [familiar/cuidador]. Hemodinamicamente estável sem drogas vasoativas, eupneico em ar ambiente. Apresenta-se sonolento , despertando a estímulos verbais, porém com desorientação temporoespacial e alopsíquica. Glasgow (O V M). Atenção hipovigil e tenacidade diminuída. Comportamento apático, pouco cooperativo aos cuidados. Pupilas isocóricas e fotorreagentes. Ausência de sinais de irritação meníngea. Sem déficits motores focais agudos aparentes. Aceitando parcialmente dieta oral pastosa. Diurese presente, de aspecto concentrado. Sem distermias, normocárdico, normotenso, sem disglicemias. Sem sinais de dor ou outras queixas passíveis de presunção no momento.</t>
+  </si>
+  <si>
+    <t>Paciente em leito de sala amarela, [com/sem] acompanhante. Mantém-se contactuante (Glasgow 15) , calmo, orientado em tempo e espaço. Eupneico em ar ambiente. Hemodinamicamente estável. Aceitando bem a dieta ofertada por via oral. Eliminações intestinais presentes e fisiológicas. Diurese presente e fisiológica. Afebril, normocárdico, normotenso e com boa saturimetria. Glicemias capilares dentro da faixa de normalidade. Nega dor ou outras queixas no momento.</t>
+  </si>
+  <si>
+    <t>Paciente em leito de [sala amarela/vermelha], em ventilação espontânea através de traqueostomia com cânula [plástica sem balão / metálica / plástica com cuff [insuflado/desinsuflado]] número [X]. Estoma traqueal de bom aspecto, fixador limpo e bem posicionado. Realizada limpeza da cânula interna e troca de curativo conforme rotina. Aspiração traqueal com secreção [fluida, hialina], em [pequena] quantidade. Eupneico em ar ambiente [ou em uso de O2 [X] L/min via conector de TQT ou máscara de TQT, SatO2 [Y]%].</t>
+  </si>
+  <si>
+    <t>Paciente em leito de [sala amarela/vermelha], [descrever estado neurológico]. Mantém traqueostomia com cânula [plástica com cuff insuflado] número [X], para proteção de via aérea [ou para ventilação mecânica intermitente]. Estoma traqueal de aspecto satisfatório, fixador adequado. Secreção traqueal [tipo, quantidade, aspecto], aspirada conforme necessidade. Atualmente em [macronebulização com O2 a [Y]% via máscara de TQT / períodos de ventilação espontânea em tubo T / ventilação mecânica em modo [especificar modo e parâmetros básicos se em desmame intermitente]]. SatO2 [Z]%.</t>
+  </si>
+  <si>
+    <t>solução injetável</t>
+  </si>
+  <si>
+    <t>frasco</t>
+  </si>
+  <si>
+    <t>solução tópica</t>
+  </si>
+  <si>
+    <t>aerossol</t>
+  </si>
+  <si>
+    <t>suspensão nasal</t>
+  </si>
+  <si>
+    <t>solução oftálmica</t>
+  </si>
+  <si>
+    <t>pó para solução injetável</t>
+  </si>
+  <si>
+    <t>xampu</t>
+  </si>
+  <si>
+    <t>solução otológica</t>
+  </si>
+  <si>
+    <t>loção</t>
+  </si>
+  <si>
+    <t>pó para inalação</t>
+  </si>
+  <si>
+    <t>grânulo</t>
+  </si>
+  <si>
+    <t>suspensão injetável</t>
+  </si>
+  <si>
+    <t>Pó para preparação extemporânea</t>
+  </si>
+  <si>
+    <t>solução nasal</t>
+  </si>
+  <si>
+    <t>cápsula</t>
+  </si>
+  <si>
+    <t>pó</t>
+  </si>
+  <si>
+    <t>pomada</t>
+  </si>
+  <si>
+    <t>pó para solução oral</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>1 - Acetilcisteína 20 mg/ml _____ 1 frasco
+Tomar 10 ml de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>1 - Ácido tranexâmico 500 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas por 3 dias</t>
+  </si>
+  <si>
+    <t>1 - Ambroxol 6 mg/ml _____ 1 frasco
+Tomar 5 ml de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>1. Amoxicilina+clavulanato 500/125 mg _____ ___ comprimidos
+Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Betametasona 0,1mg/ml _____ 1 frasco
+Tomar 10 ml de 8 em 8 horas por 4 dias</t>
+  </si>
+  <si>
+    <t>1 - Bromoprida 10 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8h se náusea</t>
+  </si>
+  <si>
+    <t>1 - Budesonida 50 mcg aerossol _____ 1 frasco
+Inalar 4 puffs por dia</t>
+  </si>
+  <si>
+    <t>1 - Budesonida 200 mcg aerossol _____ 1 frasco
+Inalar 1 puffs por dia</t>
+  </si>
+  <si>
+    <t>1 - Budesonida spray nasal 32 mcg _____ 1 frasco
+Aplicar 1 jato em cada narina de 12 em 12 horas por no máximo 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Budesonida spray nasal 50 mcg _____ 1 frasco
+Aplicar 1 jato em cada narina de 12 em 12 horas por no máximo 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Clindamicina 300 mg _____ ___ comprimidos
+Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Sulfametoxazol+trimetoprima 400/80mg _____ __ comprimidos
+Tomar ___ comprimidos de _____ horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Hidrocortisona creme _____ 1 tubo
+Aplicar 2 vezes ao dia por ___ dias. Realizar leve fricção</t>
+  </si>
+  <si>
+    <t>1 - Ibuprofeno 600 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Simeticona 40 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8h por 3 dias</t>
+  </si>
+  <si>
+    <t>1 - Hidróxido de alumínio + hidróxido de magnésio _____ 1 frasco
+Tomar 1 colher 30 min antes das refeições principais</t>
+  </si>
+  <si>
+    <t>1 - Nafazolina 0,5mg/ml solução nasal _____ 1 frasco
+Aplicar 4 gotas “dentro de cada nariz” de 6 em 6 horas por até 5 dias
+Obs.: Não fazer uso prolongado desta medicação.</t>
+  </si>
+  <si>
+    <t>1 - Omeprazol 20 mg _____ 60 comprimidos
+Tomar 1 cápsula pela manhã em jejum, 30 minutos antes da refeição, por 2 meses</t>
+  </si>
+  <si>
+    <t>1 - Dexametasona creme _____ 1 tubo
+Aplicar 2 vezes ao dia por ___</t>
+  </si>
+  <si>
+    <t>1 - Muvinlax (Macrogol 3350 + bicarbanato de sódio + cloreto de sódio + cloreto de potássio)
+_____ 1 frasco
+Tomar 1 sache por dia até melhora das fezes. Diluir 1 sache em 1 copo com água, chá ou suco</t>
+  </si>
+  <si>
+    <t>1 - Prednisolona 0,1% colírio _____ 1 frasco
+Aplicar __ gotas de ___ horas por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Sais de reidratação oral _____ _ envelopes
+Para preparar o soro de reidratação oral: diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar ___ L por dia de soro de reidratação oral. Tomar também líquido caseiros (água, suco, soro caseiro, chá e outros): ___ L. Total de litros por dia ___ L.) Tomar essa quantidade depois de dois dias de estar sem febre.</t>
+  </si>
+  <si>
+    <t>1 - Sais de reidratação oral _____ _ envelopes
+Diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar 1 copo para cada evacuação ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Dipropionato de beclometasona + fumarato de formoterol 100/6 mcg aerossol _____ 1 frasco
+Inalar 1 jato de 12 em 12 horas por dia</t>
+  </si>
+  <si>
+    <t>1 - Fumarato de formoterol + budesonida 6/200 mcg capsula para inalação _____ 1 frasco
+Inalar 1 jato por dia</t>
+  </si>
+  <si>
+    <t>1 - Fumarato de formoterol + budesonida 12/400 mcg capsula para inalação _____ 1 frasco
+Inalar 1 jato por dia</t>
+  </si>
+  <si>
+    <t>estomatite aftosa</t>
+  </si>
+  <si>
+    <t>1 - Ácido mefenâmico 500 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>1 - Água boricada 3% _____ 1 frasco
+Aplicar 2 vezes ao dia em lesão</t>
+  </si>
+  <si>
+    <t>1 - Albendazol 400 mg _____ 3 cp
+Tomar 1 comprimido por dia por 3 dias</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina 500 mg _____ __ comprimidos
+Tomar 1 comprimido de 8 em 8 horas por __ dias</t>
+  </si>
+  <si>
+    <t>1 - Anlodipino 5 mg _____ 60 cp/mês
+Tomar 1 (um) comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Anlodipino 5 mg _____ 30 cp/mês
+Tomar 1 (um) comprimido por dia</t>
+  </si>
+  <si>
+    <t>1 - Beclometasona 50 mcg aerossol _____ 1 frasco
+Inalar 4 jatos de 12 em 12 horas por dia</t>
+  </si>
+  <si>
+    <t>1 - Beclometasona 250 mcg aerossol _____ 1 frasco
+Inalar 1 jato de 12 em 12 horas por dia</t>
+  </si>
+  <si>
+    <t>1 - Carmelose colírio _____ 1 frasco
+Aplicar de 4 a 8 vezes ao dia se ardência ou secura nos olhos</t>
+  </si>
+  <si>
+    <t>1 - Carvedilol 12,5 mg _____ 60 cp/mês
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Carvedilol 6,25 mg _____ 60 cp/mês
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Carvedilol 3,125 mg _____ 60 cp/mês
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Cefalexina 500 mg _____ __ comprimidos
+Tomar 1 comprimido de 6 em 6 horas por __ dias</t>
+  </si>
+  <si>
+    <t>1 - Ceftriaxona 1 g, 2 g (2 amp) em 100 ml de S.F. 0,9%, EV, correr em 30 minutos, 24/24h, por ___ dias
+Indicação:</t>
+  </si>
+  <si>
+    <t>1 - Cetoconazol 2% xampu _____ 1 frasco
+Lavar o couro cabeludo e demais lesões 3 a 4 vezes por semana na crise
+Lavar o couro cabeludo e demais lesões 1 a 2 vezes por semana fora da crise
+Deixar agir por 3 a 5 minutos antes de enxaguar</t>
+  </si>
+  <si>
+    <t>1 - Ciclobenzaprina 10 mg _____ 1 caixa
+Tomar 1 comprimido por dia à noite por 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Cinarizina 25 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas por 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Ciprofloxacino 250 mg _____ ___ comprimidos
+Tomar 1 comprimido de 12 em 12 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Ciprofloxacino 500 mg _____ ___ comprimidos
+Tomar 1 comprimido de 12 em 12 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Ciprofloxacino + dexametasona solução tópica _____ 1 frasco
+Aplicar 4 gotas no ouvido acometido de 12/12h por 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Clorexidina 1% solução _____ 1 frasco
+Aplicar 2 vezes ao dia em lesão</t>
+  </si>
+  <si>
+    <t>1 - Clortalidona 25 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia pela manhã</t>
+  </si>
+  <si>
+    <t>1 - Codeina 30 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor</t>
+  </si>
+  <si>
+    <t>1 - Codeina 3 mg/ml _____ 1 frasco
+Tomar 10 ml de 6 em 6 horas se dor</t>
+  </si>
+  <si>
+    <t>1 - Desloratadina 5 mg _____ 1 caixa
+Tomar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>1 - Dexametasona elixir 0,5 mg/5ml _____ 1 frasco
+Realizar bocejo com 5 ml de solução por 5 min de 8 em 8 horas por 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Dexclorfeniramina 2 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>1 - Diclofenaco 50 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas por até 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Dimenidrinato 50 mg _____ 10 cp
+Tomar 1 comprimido de 6 em 6 horas se náuseas ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Dimenidrinato + piridoxina 50/10 mg ___ 10 cp
+Tomar 1 comprimido de 6 em 6 horas se náuseas ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Diosmina + hesperidina 450/50 mg _____ 1 caixa
+Tomar 1 comprimido de 12 em 12 horas até melhora dos sintomas</t>
+  </si>
+  <si>
+    <t>1 - Dipirona 500 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>1 - Dipirona 500 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre
+Obs.: Pode tomar até 2 comprimidos de 6 em 6 horas</t>
+  </si>
+  <si>
+    <t>1 - Dipirona 500 mg/ml _____ 1 caixa
+Tomar 20 gotas de 6 em 6 horas se dor ou febre
+Obs.: Pode tomar até 40 gotas de 6 em 6 horas</t>
+  </si>
+  <si>
+    <t>1 - Dipirona 500 mg _____ 1 caixa
 Tomar 1 comprimido de 6 em 6 horas se dor ou febre
 Obs.: Pode tomar até 2 comprimidos de 6 em 6 horas
 Obs. 2: Se não melhora somente com a dipirona, continue tomando-a junto com o anti-inflamatório abaixo</t>
   </si>
   <si>
-    <t>1 – Dipirona 500 mg/ml _____________________ 1 caixa
+    <t>1 - Dipirona 500 mg/ml _____ 1 caixa
 Tomar 20 gotas de 6 em 6 horas se dor ou febre
 Obs.: Pode tomar até 40 gotas de 6 em 6 horas
 Obs. 2: Se não melhora somente com a dipirona, continue tomando-a junto com o anti-inflamatório abaixo</t>
   </si>
   <si>
-    <t>1 – Paracetamol 500 mg ___________________ 1 caixa
+    <t>1 - Domperidona 10 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas. Tomar 15-30 minutos antes das refeições</t>
+  </si>
+  <si>
+    <t>1 - Enalapril 10 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>1 - Enalapril 10 mg _____ 60 cp/mês
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Escopolamina 10 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor</t>
+  </si>
+  <si>
+    <t>1 - Espironolactona 25 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia pela manhã</t>
+  </si>
+  <si>
+    <t>1 - Fluconazol 150 mg _____ 1 cp
+Tomar 1 comprimido. Dose única</t>
+  </si>
+  <si>
+    <t>1 - Flunarizina 10 mg _____ 1 caixa
+Tomar 1 comprimido por dia por 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Formoterol 6 mcg aerossol _____ 1 frasco
+Inalar 1 jato por dia. Máximo de 8 doses por dia</t>
+  </si>
+  <si>
+    <t>1 - Formoterol 12 mcg aerossol _____ 1 frasco
+Inalar 1 jato por dia. Máximo de 4 doses por dia</t>
+  </si>
+  <si>
+    <t>1 - Fosfomicina 3 g _____ 1 sache
+Tomar 1 sache diluido em água. Dose única</t>
+  </si>
+  <si>
+    <t>1 - Gliclazida 30 mg _____ 30 cp/mês
+Tomar 1 comprimido no café da manhã</t>
+  </si>
+  <si>
+    <t>1 - Gliclazida 60 mg _____ 30 cp/mês
+Tomar 1 comprimido no café da manhã</t>
+  </si>
+  <si>
+    <t>1 - Chá de guaco 30 g _____ 1 envelope
+Infundir 1 colher de sopa (3 g) para cada 150ml de água. Tomar 3 vezes ao dia</t>
+  </si>
+  <si>
+    <t>1 - Guaco tintura _____ 1 frasco
+Aplicar 40 gotas em um pouco de água e tomar de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>1 - Guaco solução oral _____ 1 frasco
+Tomar 10 ml de 8 em 8 horas por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Hidroclorotiazida 25 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia pela manhã</t>
+  </si>
+  <si>
+    <t>1 - Hidroxiquinolina + trolamina otológico (0,4 + 140 mg) _____ 1 frasco
+Aplicar 3 gotas no ouvido afetado de 8 em 8 horas por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Hidroxizina 25 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>1 - Indapamida 1,5 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia pela manhã</t>
+  </si>
+  <si>
+    <t>1 - Indapamida 2,5 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia pela manhã</t>
+  </si>
+  <si>
+    <t>1 - Insulina NPH 100 UI/ml _____ 1 frasco-ampola
+Aplicar 10 UI à noite antes de deitar-se</t>
+  </si>
+  <si>
+    <t>1 - Insulina NPH 100 UI/ml _____ 1 frasco-ampola
+Aplicar 10 UI pela manhã e 10 UI à noite antes de deitar-se</t>
+  </si>
+  <si>
+    <t>1 - Insulina NPH 100 UI/ml _____ ___ frasco-ampola
+Aplicar ___ UI pela manhã (em torno de 8h00)
+Aplicar ___ UI à tarde (em torno de 14h00)
+Aplicar ___ UI à noite (em torno de 20h00)</t>
+  </si>
+  <si>
+    <t>1 - Insulina NPH 100 UI/ml _____ 1 carpule/mês
+Aplicar 10 UI à noite antes de deitar-se</t>
+  </si>
+  <si>
+    <t>1 - Insulina NPH 100 UI/ml _____ 1 carpule/mês
+Aplicar 10 UI pela manhã (às 8h) e aplicar 10 UI à noite antes de deitar-se</t>
+  </si>
+  <si>
+    <t>1 - Insulina NPH 100 UI/ml _____ ___ carpule
+Aplicar ___ UI pela manhã (em torno de 8h00)
+Aplicar ___ UI à tarde (em torno de 14h00)
+Aplicar ___ UI à noite (em torno de 20h00)</t>
+  </si>
+  <si>
+    <t>1 - Insulina humana regular 100 UI/ml _____ ___ frasco(s)
+Aplicar ___ antes do café da manhã
+Aplicar ___ antes do almoço
+Aplicar ___ antes da janta</t>
+  </si>
+  <si>
+    <t>1 - Insulina humana regular 100 UI/ml _____ ___ carpule(s)
+Aplicar ___ antes do café da manhã
+Aplicar ___ antes do almoço
+Aplicar ___ antes da janta</t>
+  </si>
+  <si>
+    <t>1 - Ivermectina 6 mg _____ __ comprimido(s)
+Tomar __ comprimido(s). Após 1 semana tomar __ comprimido(s)</t>
+  </si>
+  <si>
+    <t>1 - Lactulose 667 mg/ml _____ 1 frasco
+Tomar 15 ml de 12 em 12 horas até melhora das fezes</t>
+  </si>
+  <si>
+    <t>1 - Levofloxacino 750 mg _____ ___ comprimidos
+Tomar 1 comprimido por dia por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Loratadina 10 mg _____ 1 caixa
+Tomar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>1 - Losartana 50 mg _____ 30 cp/mês
+Tomar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>1 - Losartana 50 mg _____ 60 cp/mês
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Macrogol 3350 _____ 1 caixa/envolopes
+Dissolver 1 (um) envelope em um copo com água e tomar 1 vez ao dia. Após o preparo, consumir imediatamente por via oral.</t>
+  </si>
+  <si>
+    <t>1 - Metformina 850 mg _____ 30 cp/mês
+Tomar 1 comprimido após o almoço</t>
+  </si>
+  <si>
+    <t>1 - Metformina 850 mg _____ 60 cp/mês
+Tomar 1 comprimido no café da manhã e 1 comprimido no jantar</t>
+  </si>
+  <si>
+    <t>1 - Metformina 850 mg _____ 90 cp/mês
+Tomar 1 comprimido no café da manhã
+Tomar 1 comprimido no almoço
+Tomar 1 comprimido no jantar</t>
+  </si>
+  <si>
+    <t>1 - Metoclopramida 10 mg _____ 20 cp
+Tomar 1 comprimido de 8 em 8 horas se náuseas ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Succinato de metoprolol 50 mg _____ 30 cp/mês
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Metronidazol 400 mg _____ 20 comprimidos
+Tomar 1 comprimido de 8 em 8 horas por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Metronidazol 10% _____ 1 tubo
+Usar 1 aplicar a noite por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Miconazol 2% creme _____ 1 tubo
+Usar 1 aplicador a noite por 7 dias</t>
+  </si>
+  <si>
+    <t>1 - Mupirocina 2% creme _____ 1 tubo
+Aplicar nas lesões de 8 em 8 horas por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Naproxeno 250 mg _____1 caixa
+Tomar 1 comprimido de 12 em 12 horas por até 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Naproxeno 500 mg _____ 1 caixa
+Tomar 1 comprimido de 12 em 12 horas por até 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Sulfato de neomicina 0,5 % + sulfato de polimixina B + hidrocortisona 1 % _____ 1 frasco
+Aplicar 4 gotas no(s) ouvido(s) acometidos de 6/6 horas por 10 dias</t>
+  </si>
+  <si>
+    <t>1 - Nimesulida 100 mg_____ 1 caixa
+Tomar 1 comprimido de 12 em 12 horas por até 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Nitazoxanida 500 mg _____ 1 cp
+Tomar 1 comprimido de 12 em 12 horas por 3 dias</t>
+  </si>
+  <si>
+    <t>1 - Nitrofurantoina 100 mg _____ __ comprimidos
+Tomar 1 comprimido de 6 em 6 horas por __ dias</t>
+  </si>
+  <si>
+    <t>1 - Óleo mineral _____ 1 frasco
+Tomar 1 colher de sopa (15 ml) ao deitar a noite
+Obs.: Se não melhora, pode aumentar para 2 (duas) colheres de sopa à noite e 1 (uma) pela manhã</t>
+  </si>
+  <si>
+    <t>1 - Ondansetrona 4 mg _____ 20 cp
+Tomar 1 comprimido de 8 em 8 horas se náuseas ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Paracetamol 750 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>1 - Paracetamol 500 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>1 - Paracetamol 750 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre
+Obs. 1: Se não melhora somente com o paracetamol, continue tomando-o junto com o anti-inflamatório abaixo</t>
+  </si>
+  <si>
+    <t>1 - Paracetamol 500 mg _____ 1 caixa
 Tomar 1 comprimido de 6 em 6 horas se dor ou febre
 Obs. 1: Se não melhora somente com o paracetamol, continue tomando-o junto com o
 anti-inflamatório abaixo</t>
   </si>
   <si>
-    <t>1 – Paracetamol 750 mg ___________________ 1 caixa
+    <t>1 - Permanganato de potássio _____ 4 envelopes
+Diluir 1 envelope em 3 litros de água morna. Realizar banho ou compressa, 3x ao dia. Evitar
+contato com região de mucosa (olhos e boca por exemplo)</t>
+  </si>
+  <si>
+    <t>1 - Permetrina 5% loção _____ 1 frasco
+Aplicar sobre o corpo (Não aplicar em região de cabeça) à noite. Enxaguar pela manhã. Repetir por 3 dias. Após 1 semana, repetir por mais 3 dias.</t>
+  </si>
+  <si>
+    <t>1 - Permetrina 1% xampu _____ 1 frasco
+Após lavar cabelo, deve-se aplicar este produto nos cabelos úmidos, cobrindo todo o couro cabeludo, e esfregar abundantemente em toda a extensão; O produto deve agir por 10 minutos. Passar o pente fino para a remoção dos piolhos e das lêndeas; Enxaguar o cabelo com água morna e enxugar com a toalha; Repetir após 7 dias, se houver necessidade; A quantidade necessária do produto depende do volume e tamanho dos cabelos, pode ser necessário usar o frasco inteiro e em alguns casos, de cabelo mais longos, pode ser necessário mais de um frasco;</t>
+  </si>
+  <si>
+    <t>1 - Prednisona 5 mg _____ __ CPs
+Tomar ___ comprimido (s) por dia por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Prednisona 20 mg _____ 10 cp
+Tomar 2 cp por dia por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Prednisolona 3 mg/ml _____ 1 caixa
+Tomar 14 ml por dia por 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Prometazina 25 mg _____ 1 caixa
+Tomar 1 comprimido de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 - Psyllium _____ 1 caixa
+Tomar 7 g ou 1 colhe de chá em 240 ml de água ou bebida favorita, 2 vezes ao dia. Misture bem e beba imediatamente. Para melhor efeito tome um copo adicional de água.</t>
+  </si>
+  <si>
+    <t>1 - Sacarato de hidróxido férrico (ex..: noripurum) _____ __ amp(s)
+Diluir ___ ampolas em ___ de S.F.0,9%. Correr lentamente. Repetir a cada uma semana (__ semanas de duração)</t>
+  </si>
+  <si>
+    <t>1 - Salbutamol 100 mcg aerossol _____ 1 frasco
+Inalar 4 jatos se desconforto respiratório pela asma</t>
+  </si>
+  <si>
+    <t>1 - Salbutamol 100 mcg aerossol _____ 1 frasco
+Inalar 4 jatos de 4 em 4 horas por 2 dias, e após, usar de chiado no peito ou falta de ar</t>
+  </si>
+  <si>
+    <t>1 - Sumatriptana 50 mg _____ 1 caixa
+Tomar 1 comprimido se dor de cabeça intensa</t>
+  </si>
+  <si>
+    <t>1 - Tenoxicam 20 mg _____ 1 caixa
+Tomar 1 comprimido por dia por até 5 dias</t>
+  </si>
+  <si>
+    <t>1 - Tramadol 50 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor</t>
+  </si>
+  <si>
+    <t>1 - Tramadol 100 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor</t>
+  </si>
+  <si>
+    <t>1 - Triancinolona acetonida 1mg/g _____ 1 tubo
+Aplicar sobre a lesão até de 8 em 8 horas por 7 dias após as refeições.</t>
+  </si>
+  <si>
+    <t>Macrogol 3350</t>
+  </si>
+  <si>
+    <t>Uso oral
+1 – Dipirona 500 mg _____ 1 caixa
 Tomar 1 comprimido de 6 em 6 horas se dor ou febre
-Obs. 1: Se não melhora somente com o paracetamol, continue tomando-o junto com o anti-inflamatório abaixo</t>
-  </si>
-  <si>
-    <t>1 – Codeina 30 mg _______________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor</t>
-  </si>
-  <si>
-    <t>1 – Nitrofurantoina 100 mg __________ __ comprimidos
-Tomar 1 comprimido de 6 em 6 horas por __ dias</t>
-  </si>
-  <si>
-    <t>1 – Ceftriaxona 1 g, 2 g (2 amp) em 100 ml de S.F. 0,9%, EV, correr em 30 minutos, 24/24h, por ___ dias
-Indicação:</t>
-  </si>
-  <si>
-    <t>1 - Clindamicina 300 mg ______ ___ comprimidos
-Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
-  </si>
-  <si>
-    <t>1 – Ciprofloxacino 500 mg _____________________ ___ comprimidos
-Tomar 1 comprimido de 12 em 12 horas por ___ dias</t>
-  </si>
-  <si>
-    <t>1 – Ondansetrona 4 mg _______________ 20 cp
-Tomar 1 comprimido de 8 em 8 horas se náuseas ou vômitos</t>
-  </si>
-  <si>
-    <t>1 – Escopolamina 10 mg _______________ 1 caixa
-Tomar 1 comprimido de 6 em 6 horas se dor</t>
-  </si>
-  <si>
-    <t>1 – Cetoconazol 2% xampu __________________________ 1 frasco
-Lavar o couro cabeludo e demais lesões 3 a 4 vezes por semana na crise
-Lavar o couro cabeludo e demais lesões 1 a 2 vezes por semana fora da crise
-Deixar agir por 3 a 5 minutos antes de enxaguar</t>
-  </si>
-  <si>
-    <t>1 – Clortalidona 25 mg _________________ 30 cp/mês
-Tomar 1 comprimido por dia pela manhã</t>
-  </si>
-  <si>
-    <t>1 – Losartana 50 mg __________________ 60 cp/mês
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
-    <t>1 – Enalapril 10 mg ___________________ 60 cp/mês
-Tomar 1 comprimido de 12 em 12 horas</t>
-  </si>
-  <si>
-    <t>1 – Metronidazol 10% _________ 1 tubo
-Usar 1 aplicar a noite por 5 dias</t>
-  </si>
-  <si>
-    <t>Diluir 1 envelope em 3 litros de água morna. Realizar banho ou compressa, 3x ao dia. Evitar
-contato com região de mucosa (olhos e boca por exemplo)</t>
-  </si>
-  <si>
-    <t>1 – Beclometasona 50 mcg aerossol _____________ 1 frasco
-Inalar 4 jatos de 12 em 12 horas por dia</t>
-  </si>
-  <si>
-    <t>1 – Prednisolona 3 mg/ml _____________ 1 caixa
-Tomar 14 ml por dia por 5 dias</t>
-  </si>
-  <si>
-    <t>1 - Nafazolina 0,5mg/ml solução nasal _____________ 1 frasco
-Aplicar 4 gotas “dentro de cada nariz” de 6 em 6 horas por até 5 dias
-Obs.: Não fazer uso prolongado desta medicação.</t>
-  </si>
-  <si>
-    <t>1 - Sais de reidratação oral ________________ _ envelopes
-Para preparar o soro de reidratação oral: diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar ___ L por dia de soro de reidratação oral. Tomar também líquido caseiros (água, suco, soro caseiro, chá e outros): ___ L. Total de litros por dia ___ L.) Tomar essa quantidade depois de dois dias de estar sem febre.</t>
-  </si>
-  <si>
-    <t>1 – Hidroxiquinolina + trolamina otológico (0,4 + 140 mg) __________ 1 frasco
-Aplicar 3 gotas no ouvido afetado de 8 em 8 horas por 5 dias</t>
-  </si>
-  <si>
-    <t>1 – Guaco tintura ______________________ 1 frasco
-Aplicar 40 gotas em um pouco de água e tomar de 8 em 8 horas</t>
-  </si>
-  <si>
-    <t>1 – Domperidona 10 mg ___________________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas. Tomar 15-30 minutos antes das refeições</t>
-  </si>
-  <si>
-    <t>1 - Soro fisiológico
-Realizar lavagem nasal com soro. Usar seringa</t>
-  </si>
-  <si>
-    <t>1 – Metformina 850 mg ____________________ 30 cp/mês
-Tomar 1 comprimido após o almoço</t>
-  </si>
-  <si>
-    <t>1 – Metformina 850 mg ____________________ 60 cp/mês
-Tomar 1 comprimido no café da manhã e 1 comprimido no jantar</t>
-  </si>
-  <si>
-    <t>1 – Metformina 850 mg ____________________ 90 cp/mês
-Tomar 1 comprimido no café da manhã
-Tomar 1 comprimido no almoço
-Tomar 1 comprimido no jantar</t>
-  </si>
-  <si>
-    <t>Eletrólitos</t>
-  </si>
-  <si>
-    <t>Realizo antissepsia de ferida. Realizo sutura de forma asséptica. Oriento sobre complicações de ferida. Oriento sobre cuidados de ferida. Prescrevo analgesia; Forneço ___ dias de atestado; Retirada de ponto com ___ dias; Oriento sobre checagem de cartão vacinal para verificar nova dose de vacina de tétano</t>
-  </si>
-  <si>
-    <t>Ambroxol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Ambroxol 6 mg/ml ____________ 1 frasco
-Tomar 5 ml de 8 em 8 horas </t>
-  </si>
-  <si>
-    <t>Acetilcisteína</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Acetilcisteína 20 mg/ml _________ 1 frasco
-Tomar 10 ml de 8 em 8 horas </t>
-  </si>
-  <si>
-    <t>Mucolítico</t>
-  </si>
-  <si>
-    <t>Ácido tranexâmico</t>
-  </si>
-  <si>
-    <t>1 - Ácido tranexâmico 500 mg _________ 1 caixa
-Tomar 1 comprimido de 8 em 8 horas por 3 dias</t>
-  </si>
-  <si>
-    <t>Antifibrinolítico</t>
-  </si>
-  <si>
-    <t>menorreia</t>
-  </si>
-  <si>
-    <t>OrdemPrioridade</t>
-  </si>
-  <si>
-    <t>crise asma</t>
-  </si>
-  <si>
-    <t>crise asma, bronquite</t>
-  </si>
-  <si>
-    <t>1 – Dexametasona elixir 0,5 mg/5ml ____________________ 1 frasco
-Realizar bocejo com 5 ml de solução por 5 min de 8 em 8 horas por 7 dias</t>
-  </si>
-  <si>
-    <t>FormaFarmaceutica</t>
-  </si>
-  <si>
-    <t>creme</t>
-  </si>
-  <si>
-    <t>solução</t>
-  </si>
-  <si>
-    <t>comprimido</t>
-  </si>
-  <si>
-    <t>solução oral</t>
-  </si>
-  <si>
-    <t>xarope</t>
-  </si>
-  <si>
-    <t>chá</t>
-  </si>
-  <si>
-    <t>tintura</t>
-  </si>
-  <si>
-    <t>ID_Item</t>
+Obs.: Pode tomar até 2 comprimidos de 6 em 6 horas
+Obs. 2: Se não melhora somente com a dipirona, continue tomando-a junto com o anti-inflamatório abaixo
+1 - Ibuprofeno 600 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas por 5 dias
+1 – Loratadina 10 mg _____ 1 caixa
+Tomar 1 comprimido por dia
+1 – Guaco xarope _____ 1 frasco
+Tomar 10 ml de 8 em 8 horas por 5 dias
+Uso tópico
+1 - Soro fisiológico 
+Realizar lavagem nasal com soro. Usar seringa
+1 - Budesonida spray nasal 50 mcg _____ 1 frasco
+Aplicar 1 jato em cada narina de 12 em 12 horas por no máximo 7 dias</t>
+  </si>
+  <si>
+    <t>Uso oral
+1 – Dipirona 500 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre
+Obs.: Pode tomar até 2 comprimidos de 6 em 6 horas
+1 – Escopolamina 10 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor
+1 – Domperidona 10 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas. Tomar 15-30 minutos antes das refeições
+1 – Metoclopramida 10 mg _____ 1 caixa
+Tomar 1 comprimido de 8 em 8 horas se náuseas ou vômitos
+1 - Hidróxido de alumínio + hidróxido de magnésio _____ 1 frasco
+Tomar 1 colher 30 min antes das refeições principais
+1 -  Omeprazol 20 mg _____ 60 comprimidos
+Tomar 1 cápsula pela manhã em jejum, 30 minutos antes da refeição, por 2 meses</t>
+  </si>
+  <si>
+    <t>Uso oral 
+1 – Dipirona 500 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre
+2 – Ibuprofeno 600 mg _____ 1 caixa 
+Tomar 1 comprimido de 8 em 8 horas por até 5 dias
+Uso tópico
+1 – Clorexidina 1% solução _____ 1 frasco
+Aplicar 2 vezes ao dia em lesão
+Obs.: Como curativo utilizar gazes ou outros curativos específicos. Usar esparadrapo para fixar. 
+Obs2.: Deixa a ferida com o curativo inicial por 24h. Realizar a troca de curativo 2 vezes ao dia. Na troca de curativo realizar limpeza com água e antisséptico (sabão neutro ou solução antisséptica); Sempre deixar a ferida coberta. Em caso de surgimento de edema, vermelhidão ou pus, ou seja, sinais de infecção procurar assistência médica. 
+Obs3.: Retirar os pontos com _ dias</t>
+  </si>
+  <si>
+    <t>Uso inalatório
+1 - Fumarato de formoterol + budesonida 6/200 mcg capsula para inalação _____ 1 frasco
+Inalar 1 jato por dia
+2 – Salbutamol 100 mcg aerossol _____ 1 frasco
+Inalar 4 jatos de 4 em 4 horas por 2 dias, e após, usar de chiado no peito ou falta de ar
+Uso oral
+1 – Prednisona 20 mg _____ 10 cp
+Tomar 2 cp por dia por 5 dias</t>
+  </si>
+  <si>
+    <t>Uso oral
+1 - Sais de reidratação oral _____ __ envelopes
+Para preparar o soro de reidratação oral: diluir 1 envelope em 1 litro de água fervida ou filtrada. 
+Tomar soro de reidratação oral: ___ L.
+Tomar também líquido caseiros (água, suco, soro caseiro, chá e outros): ___ L. 
+Total de litros por dia ___ L. 
+Obs.: Tomar essa quantidade depois de dois dias de estar sem febre.
+1 – Dipirona 500 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre
+Obs.: Pode tomar até 2 comprimidos de 6 em 6 horas
+ou
+1 – Paracetamol 750 mg _____ 1 caixa
+Tomar 1 comprimido de 6 em 6 horas se dor ou febre
+1 – Loratadina 10 mg _____ 1 caixa
+Tomar 1 comprimido por dia
+Orientações gerais:
+1 – Procurar urgência e emergência se sinais de alarme: vômitos persistentes (um vômito “atrás do outro”; dor de barriga intensa; sensação de desmaio/desmaio; sangramentos (dentro da boca, na tosse, no vômito ou nas fezes)
+2 – Combater o mosquito transmissor da dengue (Aedes Aegypti)
+3 – Usar medicações com orientação médica
+4 – Não usar antiinflimatórios não esteroidais (Exemplo: ibuprofeno, nimesulida, cetoprofeno, naproxeno, diclofenaco etc etc) e salicilatos (Exemplo: AAS)
+Beba bastante líquidos!!!</t>
+  </si>
+  <si>
+    <t>Paracentese</t>
+  </si>
+  <si>
+    <t>Punção terapêutica</t>
+  </si>
+  <si>
+    <t>- Indicação: [e.g., "Paracentese para alívio sintomático"].
+- Explicado o procedimento, riscos e benefícios para o paciente.
+- Posicionado paciente em decúbito [dorsal ou lateral] com a cabeceira elevada entre 45 e 90 graus.
+- Marcado ponto anatômico na junção do terço lateral com os dois terços mediais de uma linha imaginária traçada entre a espinha ilíaca anterossuperior esquerda e a cicatriz umbilical.
+- Realizada a antissepsia com clorexidina alcóolica no local da punção e colocado campos estéreis.
+- Infiltrado anestésico local com lidocaína à 2% com uma agulha fina
+- Inserido cateter 14G lentamente até o retorno de líquido ascítico com aspecto [e.g., amarela-citrino, límpido]. 
+- Avançado cateter plástico sobre a agulha. Retirado a agulha
+- Conectado cateter a um equipo. Saída do líquido de forma gravitacional e coletado em saco coletor
+- Retirado: [e.g. 2] L de líquido ascítico
+- Reposto albumina na dose de: [e.g. 40] g
+- Retirado o cateter. Aplicado curativo compressivo e oclusivo no local da punção
+- Procedimento sem intercorrências imediatas
+Obs.: Não dispomos de recipiente coletor à vácuo. Não dispomos de laboratório para análise laboratoriais</t>
+  </si>
+  <si>
+    <t>Drenagem torácica</t>
+  </si>
+  <si>
+    <t>Toracocentese</t>
+  </si>
+  <si>
+    <t>- Indicação: [e.g., "Para alívio"]
+- Explicado procedimento para o paciente quanto ao riscos e benefícios
+- Posiciono paciente para que fique sentando e inclinado para frente
+- Determino local da punção pelo método da percussão, da ausculta e do nível intercostal. Utilizo a linha escapular média. Utilizo também a borda superior da costela inferior ao espaço intercostal escolhido
+- Realizo antissepsia com clorexidina com tensoativo e clorexidina alcóolica. Coloco campos cirúrgicos
+- Realizo anestesia no local da punção com lidocaína à 2%
+- Realizo a punção com cateter [e.g., 18] G sobre agulha acoplada a seringa. Ao perder a resistência e aspirar o líquido pleural avanço o cateter, e depois retiro a agulha.
+- Conecto o sistema de drenagem à extremidade do cateter. Sendo coberto a abertura do cateter com o dedo durante a inserção ou troca de equipamento no cateter para evitar pneumotórax. 
+- Retiro: [e.g., 700] ml de líquido pleural
+- Sem intercorrência durante o procedimento. Paciente tolerou bem
+- Realizado curativo oclusivo no local da punção</t>
+  </si>
+  <si>
+    <t>- Indicação: [e.g., pneumotórax, hemotórax etc.]
+- Explico procedimento para o paciente quanto ao riscos e benefícios
+- Determino local anatômico formado pelo "triângulo de segurança". Limites: linha axilar anterior, borda anterior do músculo grande dorsal e ao nível do [e.g., 4° ou 5°] espaço intercostal
+- Posiciono o paciente em decúbito dorsal. Braço ipsilateral da punção abduzido e posicionado com a mão na região da cabeça.
+- Realizo a paramentação
+- Realizo antissepsia com clorexidina com tensoativos e com clorexidina alcóolica e coloco os campos estéreis
+- Anestesia local: infiltração anestésica generosa com lidocaína à 2%
+- Incisão: feito incisão na pele de aproximadamente 2 a 3 cm sobre o espaço intercostal escolhido [e.g., 5° EIC]
+- Dissecção romba: com uma pinça hemostática, disseca-se os tecidos subcutâneos e muscular. Sempre direcionado para borda superior da costela inferior
+- Perfuração da pleura e exploração digital: avançado com a pinça. Perfurado a pleura. Aberto a pinça para alargar o orifício da pleura. Explorado cavidade e orifício com o dedo enluvado
+- Inserção do dreno: pinçado o dreno tamanho [e.g., 28] Fr com a pinça hemostática e, usando o dedo como guia, introduzido o dreno na cavidade pleural. Direcionado o dreno póstero-superiormente. E introduzido 2 a 3 cm para além do último orifício do dreno
+- Conexão ao sistema sela d'água: conectado a extremidade externa ao sistema de drenagem com selo d'água. Colocado [e.g., 500] ml de selo d'água. 
+- Sutura e fixação: realizado ponto em "U" com fio não absorvível. Após isso, realizo o nó de "bailarina"
+- Confirmação: [Drenagem de: ] [Oscilação da coluna líquida] [Borbulhamento do selo d'agua] [Embaçamento por ar do tubo]
+- Procedimento realizado sem intercorrências</t>
+  </si>
+  <si>
+    <t>Drenagem terapêutica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circunstâncias do Evento:
+- Hora do início da parada cardíaca.
+- Condição do paciente no momento da parada (ex.: apneia, ausência de pulso, inconsciência).
+Intervenções Realizadas:
+- Compressões Torácicas: Frequência, profundidade e qualidade das compressões (ex.: "compressões realizadas a uma frequência de 100-120/min e profundidade de 5-6 cm").
+- Ventilação: Método utilizado (ex.: ventilação boca-a-máscara, bolsa-válvula-máscara, intubação endotraqueal) e frequência das ventilações.
+- Desfibrilação: Número de choques administrados, energia utilizada (ex.: "choque de 200J administrado") e resposta do paciente.
+- Medicações: Tipo, dose e via de administração de medicamentos (ex.: "1 mg de epinefrina IV a cada 3-5 minutos").
+Resultados da RCP:
+- Retorno da Circulação Espontânea (RCE): Hora do RCE e condição do paciente após o RCE (ex.: "RCE obtido às 14:35, paciente com pulso palpável e pressão arterial de 90/60 mmHg").
+- Interrupção da RCP: Hora e motivo da interrupção (ex.: "RCP interrompida às 14:50 devido a ordem de não ressuscitar").
+Cuidados Pós-Parada:
+- Medidas de suporte hemodinâmico e ventilatório.
+- Gerenciamento da temperatura alvo e outras intervenções crítica </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1631,13 +1938,27 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1652,7 +1973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1689,20 +2010,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="44">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1732,6 +2075,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
       </font>
@@ -1744,19 +2090,203 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1766,6 +2296,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1801,20 +2334,24 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:G134" totalsRowShown="0">
-  <autoFilter ref="A1:G134" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F134">
-    <sortCondition ref="B1:B134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:G138" totalsRowShown="0">
+  <autoFilter ref="A1:G138" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F138">
+    <sortCondition ref="B1:B138"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{EEA224EE-B017-42F5-A417-487E2B86AD5D}" name="ID_Item">
       <calculatedColumnFormula>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="40"/>
     <tableColumn id="5" xr3:uid="{00D107C9-5770-4523-8A77-BC2E8CCDFA3F}" name="OrdemPrioridade"/>
     <tableColumn id="6" xr3:uid="{A2A03C33-701E-4A02-84BD-0D3C40E0270C}" name="FormaFarmaceutica"/>
   </tableColumns>
@@ -1823,65 +2360,100 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:E6" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="37">
       <calculatedColumnFormula>ROW() - ROW(Tabela2[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:D4" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}"/>
-  <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="0">
-      <calculatedColumnFormula>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}" name="Tabela57" displayName="Tabela57" ref="A1:E9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:E9" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
+    <sortCondition ref="E1:E9"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="5" xr3:uid="{255D6023-30BF-414A-B3B5-09A8AED4AD40}" name="ID_Item" dataDxfId="30">
+      <calculatedColumnFormula>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{8C75D187-576A-41EF-9BC9-337001D161C6}" name="NomeBusca" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{7A836061-FA92-4D6E-A1CB-B0A3080FF4E2}" name="ConteudoTexto" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{9C7516CD-131C-4A90-BC19-727B1919928E}" name="Categoria" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{D9BE6F3B-192E-46DB-ADBD-41AC809A383A}" name="OrdemPrioridade" dataDxfId="26"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:D8" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}"/>
-  <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="2">
-      <calculatedColumnFormula>ROW() - ROW(Tabela4[[#Headers],[ID_Item]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:E6" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C07F2220-FEC5-4C0B-AB14-F80860FCB6A0}" name="ID_Item" dataDxfId="23">
+      <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F6AB2AED-7D50-4A14-A3D8-3D697CD7C3E6}" name="NomeBusca" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{24DCE466-5828-477A-94D8-8B94F125CA52}" name="ConteudoTexto" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{544BC52C-0699-476B-9E91-F8010861B484}" name="Categoria" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{0A44EF13-A692-417E-90F4-EEE1E0C399BB}" name="OrdemPrioridade" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:E13" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E13">
-    <sortCondition ref="B1:B13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D7" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="3">
+      <calculatedColumnFormula>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:D8" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="16">
+      <calculatedColumnFormula>ROW() - ROW(Tabela4[[#Headers],[ID_Item]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:E8" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="10">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2205,9 +2777,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE9DEBA-C453-4102-816C-FDB2AD0D57A3}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2215,30 +2789,31 @@
     <col min="3" max="3" width="101.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>390</v>
+        <v>255</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>394</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2247,16 +2822,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>383</v>
+        <v>250</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>384</v>
+        <v>310</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>385</v>
+        <v>251</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2265,20 +2843,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
+      <c r="G3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2286,16 +2867,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>386</v>
+        <v>252</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>389</v>
+        <v>254</v>
+      </c>
+      <c r="G4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2304,16 +2888,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>237</v>
+        <v>338</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>238</v>
+        <v>174</v>
+      </c>
+      <c r="G5" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2322,16 +2909,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>346</v>
+        <v>242</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>305</v>
+        <v>215</v>
+      </c>
+      <c r="G6" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2340,16 +2930,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>381</v>
+        <v>249</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2358,16 +2951,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2376,16 +2972,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2394,16 +2993,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
+      </c>
+      <c r="G10" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2412,16 +3014,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
+      </c>
+      <c r="G11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2430,20 +3035,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
+      <c r="G12" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2451,20 +3059,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>202</v>
+        <v>344</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
+      <c r="G13" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2472,20 +3083,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>202</v>
+        <v>344</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
+      <c r="G14" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2493,16 +3107,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>190</v>
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2511,310 +3128,361 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>172</v>
+        <v>315</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>30</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="G31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>31</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
         <v>298</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2823,16 +3491,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2841,16 +3512,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>240</v>
+        <v>176</v>
+      </c>
+      <c r="G34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2859,16 +3533,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>271</v>
+        <v>194</v>
+      </c>
+      <c r="G35" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2877,20 +3554,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
+      <c r="G36" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -2898,20 +3578,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>61</v>
+        <v>360</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
+      <c r="G37" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -2919,20 +3602,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
+      <c r="G38" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -2940,19 +3626,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="G39" t="s">
-        <v>395</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2961,19 +3647,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="G40" t="s">
-        <v>396</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2982,20 +3668,23 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
+      <c r="G41" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -3003,20 +3692,23 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
+      <c r="G42" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -3024,16 +3716,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="G43" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3042,16 +3737,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>71</v>
+        <v>366</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="G44" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3060,16 +3758,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>226</v>
+        <v>367</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>228</v>
+        <v>167</v>
+      </c>
+      <c r="G45" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3081,22 +3782,22 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>8</v>
+        <v>368</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>46</v>
@@ -3105,22 +3806,22 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>47</v>
@@ -3129,55 +3830,67 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>283</v>
+        <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>282</v>
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3186,16 +3899,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>283</v>
+        <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>282</v>
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3204,16 +3920,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>24</v>
+        <v>201</v>
+      </c>
+      <c r="G52" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3222,16 +3941,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>277</v>
+        <v>375</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>271</v>
+        <v>201</v>
+      </c>
+      <c r="G53" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3240,16 +3962,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>158</v>
+        <v>376</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>156</v>
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3258,16 +3983,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>348</v>
+        <v>197</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>297</v>
+        <v>193</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>263</v>
+        <v>194</v>
+      </c>
+      <c r="G55" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3276,19 +4004,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>204</v>
+        <v>378</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56">
-        <v>3</v>
+        <v>122</v>
+      </c>
+      <c r="G56" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3297,19 +4025,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>205</v>
+        <v>379</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
+        <v>188</v>
+      </c>
+      <c r="G57" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3318,19 +4046,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>211</v>
+        <v>380</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3339,19 +4070,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>206</v>
+        <v>381</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3360,20 +4094,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>211</v>
+        <v>333</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
+      <c r="G60" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -3381,16 +4118,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>87</v>
+        <v>334</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3399,20 +4142,23 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>331</v>
+        <v>154</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>333</v>
+        <v>156</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
+      <c r="G62" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -3420,19 +4166,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>331</v>
+        <v>59</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>333</v>
+        <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="G63" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3441,19 +4187,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>44</v>
+        <v>227</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>400</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3462,19 +4211,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>44</v>
+        <v>227</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>401</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3483,22 +4235,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3507,16 +4256,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>271</v>
+        <v>33</v>
+      </c>
+      <c r="G67" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3525,16 +4277,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>192</v>
+        <v>387</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>190</v>
+        <v>33</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3543,16 +4301,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>174</v>
+        <v>388</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
+      </c>
+      <c r="G69" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3561,16 +4322,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>213</v>
+        <v>145</v>
+      </c>
+      <c r="G70" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3579,19 +4343,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="G71" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3600,19 +4364,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>27</v>
+        <v>389</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="G72" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3621,16 +4385,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>273</v>
+        <v>390</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>271</v>
+        <v>179</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3639,16 +4409,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>271</v>
+        <v>19</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3657,19 +4433,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>327</v>
+        <v>195</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>318</v>
+        <v>193</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
+        <v>194</v>
+      </c>
+      <c r="G75" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3678,41 +4454,44 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>327</v>
+        <v>195</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>318</v>
+        <v>193</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="G76" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="F77">
         <v>3</v>
       </c>
+      <c r="G77" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -3720,796 +4499,925 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="F78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="F79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>325</v>
+        <v>396</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="F80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="F81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="F82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>72</v>
+        <v>229</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>73</v>
+        <v>399</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>181</v>
+        <v>400</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F86">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>84</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>85</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="G86" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G90" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>86</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>87</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>88</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>89</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>90</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>91</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>92</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="C93" s="3" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>186</v>
+        <v>409</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G96" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="G97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>154</v>
+        <v>413</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G98" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>235</v>
+        <v>414</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G99" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G100" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101">
+        <v>175</v>
+      </c>
+      <c r="G101" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>101</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>102</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>167</v>
+        <v>418</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>303</v>
+        <v>419</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>304</v>
+        <v>34</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G107" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G108" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G110" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>105</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>106</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F107">
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G111" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>107</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="4" t="s">
+      <c r="G112" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>108</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>109</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="C113" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F110">
+      <c r="E113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>110</v>
-      </c>
-      <c r="B111" s="4" t="s">
+      <c r="G113" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F111">
+      <c r="E114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>111</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>112</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>113</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>222</v>
+        <v>428</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>265</v>
+        <v>429</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="G116" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="G117" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>37</v>
+        <v>431</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>391</v>
+        <v>210</v>
       </c>
       <c r="G118" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4518,19 +5426,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>369</v>
+        <v>162</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>392</v>
+        <v>164</v>
       </c>
       <c r="G119" t="s">
-        <v>398</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4539,40 +5447,40 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G120" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>120</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>216</v>
+      <c r="B121" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>217</v>
+        <v>432</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F121">
-        <v>5</v>
+        <v>211</v>
+      </c>
+      <c r="G121" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4581,34 +5489,40 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>91</v>
+        <v>433</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="G122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>379</v>
+        <v>29</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>196</v>
+        <v>257</v>
+      </c>
+      <c r="G123" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4617,37 +5531,46 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>178</v>
+        <v>435</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>379</v>
+        <v>39</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>124</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>33</v>
+      <c r="B125" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>198</v>
+        <v>436</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4656,37 +5579,40 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>34</v>
+        <v>437</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="G126" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>169</v>
+        <v>331</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>313</v>
+        <v>150</v>
+      </c>
+      <c r="G127" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4695,133 +5621,244 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G128" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>128</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>129</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>130</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D131" s="4" t="s">
+      <c r="G133" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G134" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>131</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F132">
+      <c r="E136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>132</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F133">
+      <c r="G136" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>133</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>232</v>
+      <c r="G137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G138" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4837,7 +5874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69FEE0D-C200-477B-AD66-2EE7A919F54C}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4848,19 +5887,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>390</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -4869,13 +5908,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -4887,13 +5926,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -4905,13 +5944,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -4923,13 +5962,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5">
         <v>3</v>
@@ -4941,13 +5980,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
@@ -4962,77 +6001,181 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63061C67-B363-452A-A39F-8FB51F9B9B82}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6861A0-674B-4CF5-A1F6-4D37C3CABC30}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="405" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>113</v>
+      <c r="B6" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5044,11 +6187,268 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1623D2DD-2AAF-46F4-A228-AB579D2CF3FD}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="A3:A5" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63061C67-B363-452A-A39F-8FB51F9B9B82}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F398F0-EEA4-4588-9072-BC0E09F19E1A}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5060,16 +6460,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -5078,13 +6478,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5093,13 +6493,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
@@ -5108,13 +6508,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -5123,13 +6523,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -5138,13 +6538,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="405" x14ac:dyDescent="0.25">
@@ -5153,13 +6553,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -5168,13 +6568,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5185,139 +6585,139 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D3372-8E60-46D2-8A5A-AF4F9411474D}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>338</v>
+        <v>103</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>339</v>
+        <v>104</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>340</v>
+        <v>105</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>344</v>
+        <v>111</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>345</v>
+        <v>112</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>343</v>
+        <v>101</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -5325,101 +6725,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>136</v>
+        <v>107</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="405" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E10" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="390" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="5">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/gerar_html/prescricoes.xlsx
+++ b/gerar_html/prescricoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1AC289667D0E8CCD/Documentos/Saúde/Prescrições/Prescrição_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1248" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8318A9-A850-4E3E-A5E7-486C4B84D6DE}"/>
+  <xr:revisionPtr revIDLastSave="1431" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B22C18C1-9D30-4C8A-AB7D-EB1AA16B544D}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="4" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicamentos" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="487">
   <si>
     <t>NomeBusca</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>Explico procedimento para paciente. Posiciono de forma adequada o paciente; Realizo paramentação; Realizado antissepsia de local de punção: ?; Realizado anestesia local; Realizado punção com agulha, introduzido fio-guia e, após, feito dilatação com o dilatador; Introduzido cateter, retirado fio-guia e feito fixação com fio nylon. Procedimento sem intercorrência. Cateter duplo lúmen e tamanho Fr 7</t>
-  </si>
-  <si>
-    <t>Acesso venoso</t>
   </si>
   <si>
     <t>RCP</t>
@@ -470,11 +467,6 @@
     <t>Atestado acompanhante</t>
   </si>
   <si>
-    <t xml:space="preserve">Acompanhante em questão esteve como acompanhante durante internação de (nome do paciente internado), (grau de parentesco) no (Estabelecimento de Saúde), (Cidade e estado), nos períodos: de __ até __.
-CID:
-Data: </t>
-  </si>
-  <si>
     <t>Amoxicilina, clavulanato</t>
   </si>
   <si>
@@ -654,9 +646,6 @@
   </si>
   <si>
     <t>Corticoide tópico</t>
-  </si>
-  <si>
-    <t>Estomatite aftosa</t>
   </si>
   <si>
     <t>Permanganato de potássio</t>
@@ -1212,10 +1201,6 @@
 Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
   </si>
   <si>
-    <t>1 - Sulfametoxazol+trimetoprima 400/80mg _____ __ comprimidos
-Tomar ___ comprimidos de _____ horas por ___ dias</t>
-  </si>
-  <si>
     <t>1 - Hidrocortisona creme _____ 1 tubo
 Aplicar 2 vezes ao dia por ___ dias. Realizar leve fricção</t>
   </si>
@@ -1254,14 +1239,6 @@
 Aplicar __ gotas de ___ horas por 5 dias</t>
   </si>
   <si>
-    <t>1 - Sais de reidratação oral _____ _ envelopes
-Para preparar o soro de reidratação oral: diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar ___ L por dia de soro de reidratação oral. Tomar também líquido caseiros (água, suco, soro caseiro, chá e outros): ___ L. Total de litros por dia ___ L.) Tomar essa quantidade depois de dois dias de estar sem febre.</t>
-  </si>
-  <si>
-    <t>1 - Sais de reidratação oral _____ _ envelopes
-Diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar 1 copo para cada evacuação ou vômitos</t>
-  </si>
-  <si>
     <t>1 - Dipropionato de beclometasona + fumarato de formoterol 100/6 mcg aerossol _____ 1 frasco
 Inalar 1 jato de 12 em 12 horas por dia</t>
   </si>
@@ -1287,10 +1264,6 @@
   <si>
     <t>1 - Albendazol 400 mg _____ 3 cp
 Tomar 1 comprimido por dia por 3 dias</t>
-  </si>
-  <si>
-    <t>1 - Amoxicilina 500 mg _____ __ comprimidos
-Tomar 1 comprimido de 8 em 8 horas por __ dias</t>
   </si>
   <si>
     <t>1 - Anlodipino 5 mg _____ 60 cp/mês
@@ -1680,10 +1653,6 @@
 Após lavar cabelo, deve-se aplicar este produto nos cabelos úmidos, cobrindo todo o couro cabeludo, e esfregar abundantemente em toda a extensão; O produto deve agir por 10 minutos. Passar o pente fino para a remoção dos piolhos e das lêndeas; Enxaguar o cabelo com água morna e enxugar com a toalha; Repetir após 7 dias, se houver necessidade; A quantidade necessária do produto depende do volume e tamanho dos cabelos, pode ser necessário usar o frasco inteiro e em alguns casos, de cabelo mais longos, pode ser necessário mais de um frasco;</t>
   </si>
   <si>
-    <t>1 - Prednisona 5 mg _____ __ CPs
-Tomar ___ comprimido (s) por dia por ___ dias</t>
-  </si>
-  <si>
     <t>1 - Prednisona 20 mg _____ 10 cp
 Tomar 2 cp por dia por 5 dias</t>
   </si>
@@ -1698,10 +1667,6 @@
   <si>
     <t>1 - Psyllium _____ 1 caixa
 Tomar 7 g ou 1 colhe de chá em 240 ml de água ou bebida favorita, 2 vezes ao dia. Misture bem e beba imediatamente. Para melhor efeito tome um copo adicional de água.</t>
-  </si>
-  <si>
-    <t>1 - Sacarato de hidróxido férrico (ex..: noripurum) _____ __ amp(s)
-Diluir ___ ampolas em ___ de S.F.0,9%. Correr lentamente. Repetir a cada uma semana (__ semanas de duração)</t>
   </si>
   <si>
     <t>1 - Salbutamol 100 mcg aerossol _____ 1 frasco
@@ -1769,6 +1734,120 @@
 Tomar 1 cápsula pela manhã em jejum, 30 minutos antes da refeição, por 2 meses</t>
   </si>
   <si>
+    <t>Uso inalatório
+1 - Fumarato de formoterol + budesonida 6/200 mcg capsula para inalação _____ 1 frasco
+Inalar 1 jato por dia
+2 – Salbutamol 100 mcg aerossol _____ 1 frasco
+Inalar 4 jatos de 4 em 4 horas por 2 dias, e após, usar de chiado no peito ou falta de ar
+Uso oral
+1 – Prednisona 20 mg _____ 10 cp
+Tomar 2 cp por dia por 5 dias</t>
+  </si>
+  <si>
+    <t>Paracentese</t>
+  </si>
+  <si>
+    <t>Punção terapêutica</t>
+  </si>
+  <si>
+    <t>- Indicação: [e.g., "Paracentese para alívio sintomático"].
+- Explicado o procedimento, riscos e benefícios para o paciente.
+- Posicionado paciente em decúbito [dorsal ou lateral] com a cabeceira elevada entre 45 e 90 graus.
+- Marcado ponto anatômico na junção do terço lateral com os dois terços mediais de uma linha imaginária traçada entre a espinha ilíaca anterossuperior esquerda e a cicatriz umbilical.
+- Realizada a antissepsia com clorexidina alcóolica no local da punção e colocado campos estéreis.
+- Infiltrado anestésico local com lidocaína à 2% com uma agulha fina
+- Inserido cateter 14G lentamente até o retorno de líquido ascítico com aspecto [e.g., amarela-citrino, límpido]. 
+- Avançado cateter plástico sobre a agulha. Retirado a agulha
+- Conectado cateter a um equipo. Saída do líquido de forma gravitacional e coletado em saco coletor
+- Retirado: [e.g. 2] L de líquido ascítico
+- Reposto albumina na dose de: [e.g. 40] g
+- Retirado o cateter. Aplicado curativo compressivo e oclusivo no local da punção
+- Procedimento sem intercorrências imediatas
+Obs.: Não dispomos de recipiente coletor à vácuo. Não dispomos de laboratório para análise laboratoriais</t>
+  </si>
+  <si>
+    <t>Drenagem torácica</t>
+  </si>
+  <si>
+    <t>Toracocentese</t>
+  </si>
+  <si>
+    <t>- Indicação: [e.g., "Para alívio"]
+- Explicado procedimento para o paciente quanto ao riscos e benefícios
+- Posiciono paciente para que fique sentando e inclinado para frente
+- Determino local da punção pelo método da percussão, da ausculta e do nível intercostal. Utilizo a linha escapular média. Utilizo também a borda superior da costela inferior ao espaço intercostal escolhido
+- Realizo antissepsia com clorexidina com tensoativo e clorexidina alcóolica. Coloco campos cirúrgicos
+- Realizo anestesia no local da punção com lidocaína à 2%
+- Realizo a punção com cateter [e.g., 18] G sobre agulha acoplada a seringa. Ao perder a resistência e aspirar o líquido pleural avanço o cateter, e depois retiro a agulha.
+- Conecto o sistema de drenagem à extremidade do cateter. Sendo coberto a abertura do cateter com o dedo durante a inserção ou troca de equipamento no cateter para evitar pneumotórax. 
+- Retiro: [e.g., 700] ml de líquido pleural
+- Sem intercorrência durante o procedimento. Paciente tolerou bem
+- Realizado curativo oclusivo no local da punção</t>
+  </si>
+  <si>
+    <t>- Indicação: [e.g., pneumotórax, hemotórax etc.]
+- Explico procedimento para o paciente quanto ao riscos e benefícios
+- Determino local anatômico formado pelo "triângulo de segurança". Limites: linha axilar anterior, borda anterior do músculo grande dorsal e ao nível do [e.g., 4° ou 5°] espaço intercostal
+- Posiciono o paciente em decúbito dorsal. Braço ipsilateral da punção abduzido e posicionado com a mão na região da cabeça.
+- Realizo a paramentação
+- Realizo antissepsia com clorexidina com tensoativos e com clorexidina alcóolica e coloco os campos estéreis
+- Anestesia local: infiltração anestésica generosa com lidocaína à 2%
+- Incisão: feito incisão na pele de aproximadamente 2 a 3 cm sobre o espaço intercostal escolhido [e.g., 5° EIC]
+- Dissecção romba: com uma pinça hemostática, disseca-se os tecidos subcutâneos e muscular. Sempre direcionado para borda superior da costela inferior
+- Perfuração da pleura e exploração digital: avançado com a pinça. Perfurado a pleura. Aberto a pinça para alargar o orifício da pleura. Explorado cavidade e orifício com o dedo enluvado
+- Inserção do dreno: pinçado o dreno tamanho [e.g., 28] Fr com a pinça hemostática e, usando o dedo como guia, introduzido o dreno na cavidade pleural. Direcionado o dreno póstero-superiormente. E introduzido 2 a 3 cm para além do último orifício do dreno
+- Conexão ao sistema sela d'água: conectado a extremidade externa ao sistema de drenagem com selo d'água. Colocado [e.g., 500] ml de selo d'água. 
+- Sutura e fixação: realizado ponto em "U" com fio não absorvível. Após isso, realizo o nó de "bailarina"
+- Confirmação: [Drenagem de: ] [Oscilação da coluna líquida] [Borbulhamento do selo d'agua] [Embaçamento por ar do tubo]
+- Procedimento realizado sem intercorrências</t>
+  </si>
+  <si>
+    <t>Drenagem terapêutica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circunstâncias do Evento:
+- Hora do início da parada cardíaca.
+- Condição do paciente no momento da parada (ex.: apneia, ausência de pulso, inconsciência).
+Intervenções Realizadas:
+- Compressões Torácicas: Frequência, profundidade e qualidade das compressões (ex.: "compressões realizadas a uma frequência de 100-120/min e profundidade de 5-6 cm").
+- Ventilação: Método utilizado (ex.: ventilação boca-a-máscara, bolsa-válvula-máscara, intubação endotraqueal) e frequência das ventilações.
+- Desfibrilação: Número de choques administrados, energia utilizada (ex.: "choque de 200J administrado") e resposta do paciente.
+- Medicações: Tipo, dose e via de administração de medicamentos (ex.: "1 mg de epinefrina IV a cada 3-5 minutos").
+Resultados da RCP:
+- Retorno da Circulação Espontânea (RCE): Hora do RCE e condição do paciente após o RCE (ex.: "RCE obtido às 14:35, paciente com pulso palpável e pressão arterial de 90/60 mmHg").
+- Interrupção da RCP: Hora e motivo da interrupção (ex.: "RCP interrompida às 14:50 devido a ordem de não ressuscitar").
+Cuidados Pós-Parada:
+- Medidas de suporte hemodinâmico e ventilatório.
+- Gerenciamento da temperatura alvo e outras intervenções crítica </t>
+  </si>
+  <si>
+    <t>Acesso venoso central</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina 500 mg _____ ___ comprimidos
+Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Prednisona 5 mg _____ ___ CPs
+Tomar ___ comprimido (s) por dia por ___ dias</t>
+  </si>
+  <si>
+    <t>1 - Sacarato de hidróxido férrico (ex..: noripurum) _____ ___ amp(s)
+Diluir ___ ampolas em ___ de S.F.0,9%. Correr lentamente. Repetir a cada uma semana (___ semanas de duração)</t>
+  </si>
+  <si>
+    <t>1 - Sais de reidratação oral _____ ___ envelopes
+Para preparar o soro de reidratação oral: diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar ___ L por dia de soro de reidratação oral. Tomar também líquido caseiros (água, suco, soro caseiro, chá e outros): ___ L. Total de litros por dia ___ L.) Tomar essa quantidade depois de dois dias de estar sem febre.</t>
+  </si>
+  <si>
+    <t>1 - Sais de reidratação oral _____ ___ envelopes
+Diluir 1 envelope em 1 litro de água fervida ou filtrada. Tomar 1 copo para cada evacuação ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Sulfametoxazol+trimetoprima 400/80mg _____ ___ comprimidos
+Tomar ___ comprimidos de _____ horas por ___ dias</t>
+  </si>
+  <si>
     <t>Uso oral 
 1 – Dipirona 500 mg _____ 1 caixa
 Tomar 1 comprimido de 6 em 6 horas se dor ou febre
@@ -1779,21 +1858,11 @@
 Aplicar 2 vezes ao dia em lesão
 Obs.: Como curativo utilizar gazes ou outros curativos específicos. Usar esparadrapo para fixar. 
 Obs2.: Deixa a ferida com o curativo inicial por 24h. Realizar a troca de curativo 2 vezes ao dia. Na troca de curativo realizar limpeza com água e antisséptico (sabão neutro ou solução antisséptica); Sempre deixar a ferida coberta. Em caso de surgimento de edema, vermelhidão ou pus, ou seja, sinais de infecção procurar assistência médica. 
-Obs3.: Retirar os pontos com _ dias</t>
-  </si>
-  <si>
-    <t>Uso inalatório
-1 - Fumarato de formoterol + budesonida 6/200 mcg capsula para inalação _____ 1 frasco
-Inalar 1 jato por dia
-2 – Salbutamol 100 mcg aerossol _____ 1 frasco
-Inalar 4 jatos de 4 em 4 horas por 2 dias, e após, usar de chiado no peito ou falta de ar
-Uso oral
-1 – Prednisona 20 mg _____ 10 cp
-Tomar 2 cp por dia por 5 dias</t>
+Obs3.: Retirar os pontos com ___ dias</t>
   </si>
   <si>
     <t>Uso oral
-1 - Sais de reidratação oral _____ __ envelopes
+1 - Sais de reidratação oral _____ ___ envelopes
 Para preparar o soro de reidratação oral: diluir 1 envelope em 1 litro de água fervida ou filtrada. 
 Tomar soro de reidratação oral: ___ L.
 Tomar também líquido caseiros (água, suco, soro caseiro, chá e outros): ___ L. 
@@ -1815,88 +1884,110 @@
 Beba bastante líquidos!!!</t>
   </si>
   <si>
-    <t>Paracentese</t>
-  </si>
-  <si>
-    <t>Punção terapêutica</t>
-  </si>
-  <si>
-    <t>- Indicação: [e.g., "Paracentese para alívio sintomático"].
-- Explicado o procedimento, riscos e benefícios para o paciente.
-- Posicionado paciente em decúbito [dorsal ou lateral] com a cabeceira elevada entre 45 e 90 graus.
-- Marcado ponto anatômico na junção do terço lateral com os dois terços mediais de uma linha imaginária traçada entre a espinha ilíaca anterossuperior esquerda e a cicatriz umbilical.
-- Realizada a antissepsia com clorexidina alcóolica no local da punção e colocado campos estéreis.
-- Infiltrado anestésico local com lidocaína à 2% com uma agulha fina
-- Inserido cateter 14G lentamente até o retorno de líquido ascítico com aspecto [e.g., amarela-citrino, límpido]. 
-- Avançado cateter plástico sobre a agulha. Retirado a agulha
-- Conectado cateter a um equipo. Saída do líquido de forma gravitacional e coletado em saco coletor
-- Retirado: [e.g. 2] L de líquido ascítico
-- Reposto albumina na dose de: [e.g. 40] g
-- Retirado o cateter. Aplicado curativo compressivo e oclusivo no local da punção
-- Procedimento sem intercorrências imediatas
-Obs.: Não dispomos de recipiente coletor à vácuo. Não dispomos de laboratório para análise laboratoriais</t>
-  </si>
-  <si>
-    <t>Drenagem torácica</t>
-  </si>
-  <si>
-    <t>Toracocentese</t>
-  </si>
-  <si>
-    <t>- Indicação: [e.g., "Para alívio"]
-- Explicado procedimento para o paciente quanto ao riscos e benefícios
-- Posiciono paciente para que fique sentando e inclinado para frente
-- Determino local da punção pelo método da percussão, da ausculta e do nível intercostal. Utilizo a linha escapular média. Utilizo também a borda superior da costela inferior ao espaço intercostal escolhido
-- Realizo antissepsia com clorexidina com tensoativo e clorexidina alcóolica. Coloco campos cirúrgicos
-- Realizo anestesia no local da punção com lidocaína à 2%
-- Realizo a punção com cateter [e.g., 18] G sobre agulha acoplada a seringa. Ao perder a resistência e aspirar o líquido pleural avanço o cateter, e depois retiro a agulha.
-- Conecto o sistema de drenagem à extremidade do cateter. Sendo coberto a abertura do cateter com o dedo durante a inserção ou troca de equipamento no cateter para evitar pneumotórax. 
-- Retiro: [e.g., 700] ml de líquido pleural
-- Sem intercorrência durante o procedimento. Paciente tolerou bem
-- Realizado curativo oclusivo no local da punção</t>
-  </si>
-  <si>
-    <t>- Indicação: [e.g., pneumotórax, hemotórax etc.]
-- Explico procedimento para o paciente quanto ao riscos e benefícios
-- Determino local anatômico formado pelo "triângulo de segurança". Limites: linha axilar anterior, borda anterior do músculo grande dorsal e ao nível do [e.g., 4° ou 5°] espaço intercostal
-- Posiciono o paciente em decúbito dorsal. Braço ipsilateral da punção abduzido e posicionado com a mão na região da cabeça.
-- Realizo a paramentação
-- Realizo antissepsia com clorexidina com tensoativos e com clorexidina alcóolica e coloco os campos estéreis
-- Anestesia local: infiltração anestésica generosa com lidocaína à 2%
-- Incisão: feito incisão na pele de aproximadamente 2 a 3 cm sobre o espaço intercostal escolhido [e.g., 5° EIC]
-- Dissecção romba: com uma pinça hemostática, disseca-se os tecidos subcutâneos e muscular. Sempre direcionado para borda superior da costela inferior
-- Perfuração da pleura e exploração digital: avançado com a pinça. Perfurado a pleura. Aberto a pinça para alargar o orifício da pleura. Explorado cavidade e orifício com o dedo enluvado
-- Inserção do dreno: pinçado o dreno tamanho [e.g., 28] Fr com a pinça hemostática e, usando o dedo como guia, introduzido o dreno na cavidade pleural. Direcionado o dreno póstero-superiormente. E introduzido 2 a 3 cm para além do último orifício do dreno
-- Conexão ao sistema sela d'água: conectado a extremidade externa ao sistema de drenagem com selo d'água. Colocado [e.g., 500] ml de selo d'água. 
-- Sutura e fixação: realizado ponto em "U" com fio não absorvível. Após isso, realizo o nó de "bailarina"
-- Confirmação: [Drenagem de: ] [Oscilação da coluna líquida] [Borbulhamento do selo d'agua] [Embaçamento por ar do tubo]
-- Procedimento realizado sem intercorrências</t>
-  </si>
-  <si>
-    <t>Drenagem terapêutica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circunstâncias do Evento:
-- Hora do início da parada cardíaca.
-- Condição do paciente no momento da parada (ex.: apneia, ausência de pulso, inconsciência).
-Intervenções Realizadas:
-- Compressões Torácicas: Frequência, profundidade e qualidade das compressões (ex.: "compressões realizadas a uma frequência de 100-120/min e profundidade de 5-6 cm").
-- Ventilação: Método utilizado (ex.: ventilação boca-a-máscara, bolsa-válvula-máscara, intubação endotraqueal) e frequência das ventilações.
-- Desfibrilação: Número de choques administrados, energia utilizada (ex.: "choque de 200J administrado") e resposta do paciente.
-- Medicações: Tipo, dose e via de administração de medicamentos (ex.: "1 mg de epinefrina IV a cada 3-5 minutos").
-Resultados da RCP:
-- Retorno da Circulação Espontânea (RCE): Hora do RCE e condição do paciente após o RCE (ex.: "RCE obtido às 14:35, paciente com pulso palpável e pressão arterial de 90/60 mmHg").
-- Interrupção da RCP: Hora e motivo da interrupção (ex.: "RCP interrompida às 14:50 devido a ordem de não ressuscitar").
-Cuidados Pós-Parada:
-- Medidas de suporte hemodinâmico e ventilatório.
-- Gerenciamento da temperatura alvo e outras intervenções crítica </t>
+    <t xml:space="preserve">Acompanhante em questão esteve como acompanhante durante internação de (nome do paciente internado), (grau de parentesco) no (Estabelecimento de Saúde), (Cidade e estado), nos períodos: de __ até __.
+CID:
+Data: </t>
+  </si>
+  <si>
+    <t>isCalculable</t>
+  </si>
+  <si>
+    <t>calcPlaceholder</t>
+  </si>
+  <si>
+    <t>calcInfo</t>
+  </si>
+  <si>
+    <t>calcDoseMinMgKg</t>
+  </si>
+  <si>
+    <t>calcDoseMaxMgKg</t>
+  </si>
+  <si>
+    <t>calcConcentrationMgMl</t>
+  </si>
+  <si>
+    <t>calcDropsPerMl</t>
+  </si>
+  <si>
+    <t>calcMaxDoseMgKgDay</t>
+  </si>
+  <si>
+    <t>calcMaxDoseMgDay</t>
+  </si>
+  <si>
+    <t>calcRoundingMax</t>
+  </si>
+  <si>
+    <t>1 – Paracetamol 200 mg/ml solução _____ 1 frasco
+Dar [...] gotas de 6 em 6 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>dor, febre</t>
+  </si>
+  <si>
+    <t>[...]</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Dose: 10-15 mg/kg/dose.
+Dose máxima: 75 mg/kg/dia ou 4000 mg/dia</t>
+  </si>
+  <si>
+    <t>FLOOR</t>
+  </si>
+  <si>
+    <t>1 – Ibuprofeno 100mg/ml solução _____ 1 frasco
+Dar [...] gotas de 8 em 8 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>Dose: 5-10 mg/kg/dose.
+Dose máxima: 40 mg/kg/dia ou 2400 mg/dia</t>
+  </si>
+  <si>
+    <t>calcFrequencyHours</t>
+  </si>
+  <si>
+    <t>calcUnit</t>
+  </si>
+  <si>
+    <t>1 – Dipirona sódica 50 mg/ml solução _____ 1 frasco
+Dar [...] mls de 6 em 6 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>Dose: 10-12 mg/kg/dose. 
+Dose máxima: 20 ml/dose ou 4000 mg/dia</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>calcMaxMgPerDose</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina + clavulanato pó p/ susp  50/12,5 mg/ml _____ ___ 1 frasco
+Tomar [...] ml(s) de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>Dose: 25-45 mg/kg/dia de amoxicilina (ou 3,125-5,625 mg/kg/dose de amoxicilina). 
+Dose máxima: 20 ml/dose</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina pó para suspensão 250 mg/5 ml _____ 1 frasco
+Tomar [...] ml(s) de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>Dose: 25-50 mg/kg/dia (ou 8,3-16,7 mg/kg/dose). 
+Dose máxima: 10 ml/dose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1919,24 +2010,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFD8DEE9"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFD0D0D0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -1973,7 +2052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2005,11 +2084,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2019,8 +2096,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2031,25 +2108,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="44">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2091,6 +2149,25 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2339,12 +2416,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:G138" totalsRowShown="0">
-  <autoFilter ref="A1:G138" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:T143" totalsRowShown="0">
+  <autoFilter ref="A1:T143" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F138">
     <sortCondition ref="B1:B138"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="20">
     <tableColumn id="7" xr3:uid="{EEA224EE-B017-42F5-A417-487E2B86AD5D}" name="ID_Item">
       <calculatedColumnFormula>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
@@ -2354,6 +2431,19 @@
     <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="40"/>
     <tableColumn id="5" xr3:uid="{00D107C9-5770-4523-8A77-BC2E8CCDFA3F}" name="OrdemPrioridade"/>
     <tableColumn id="6" xr3:uid="{A2A03C33-701E-4A02-84BD-0D3C40E0270C}" name="FormaFarmaceutica"/>
+    <tableColumn id="8" xr3:uid="{037F36DC-527F-4AE8-A6F4-3169AA433215}" name="isCalculable"/>
+    <tableColumn id="9" xr3:uid="{32DA01BC-4663-439B-A298-3E78ACF358AE}" name="calcPlaceholder"/>
+    <tableColumn id="10" xr3:uid="{95F2DF79-DD95-4B94-B995-8E05DA7BFE48}" name="calcInfo"/>
+    <tableColumn id="11" xr3:uid="{A3368C98-3C79-462A-B0B0-AA267EE3465E}" name="calcDoseMinMgKg"/>
+    <tableColumn id="12" xr3:uid="{DAC9C71A-BFEC-453E-8480-3C08E68D7BDA}" name="calcDoseMaxMgKg"/>
+    <tableColumn id="13" xr3:uid="{68609BF3-F4C0-4314-95B0-50B775A3E422}" name="calcConcentrationMgMl"/>
+    <tableColumn id="19" xr3:uid="{2B4D8352-799E-4A66-9421-E3E5E36E0F59}" name="calcUnit"/>
+    <tableColumn id="14" xr3:uid="{5AE89D45-E4F3-4795-886A-863A50BB9D34}" name="calcDropsPerMl"/>
+    <tableColumn id="18" xr3:uid="{2D8C2EEF-BA51-4779-A925-1A6A6988810F}" name="calcFrequencyHours"/>
+    <tableColumn id="20" xr3:uid="{98B59933-7704-4CEB-9C11-D291545F8380}" name="calcMaxMgPerDose"/>
+    <tableColumn id="15" xr3:uid="{ADD029AD-4302-4DFB-A730-84FEBE8F1506}" name="calcMaxDoseMgKgDay"/>
+    <tableColumn id="16" xr3:uid="{F50782CB-2422-484A-AEE5-602A7DE0A58A}" name="calcMaxDoseMgDay"/>
+    <tableColumn id="17" xr3:uid="{080F5EE5-E42D-4421-BF68-04806C3A7C35}" name="calcRoundingMax"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2411,49 +2501,49 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:D7" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="16">
       <calculatedColumnFormula>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:D8" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="10">
       <calculatedColumnFormula>ROW() - ROW(Tabela4[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E8" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
     <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="4">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2777,10 +2867,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE9DEBA-C453-4102-816C-FDB2AD0D57A3}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:T143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,11 +2881,24 @@
     <col min="5" max="5" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2809,143 +2912,182 @@
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>7</v>
@@ -2954,91 +3096,91 @@
         <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>29</v>
@@ -3050,19 +3192,19 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
@@ -3074,19 +3216,19 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -3098,40 +3240,40 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>47</v>
@@ -3140,7 +3282,7 @@
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3152,7 +3294,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>29</v>
@@ -3164,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3176,7 +3318,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>29</v>
@@ -3188,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3200,7 +3342,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
@@ -3209,7 +3351,7 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3221,7 +3363,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>29</v>
@@ -3230,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3239,19 +3381,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3260,19 +3402,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3281,19 +3423,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3302,19 +3444,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3326,16 +3468,16 @@
         <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3347,16 +3489,16 @@
         <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3365,19 +3507,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3389,7 +3531,7 @@
         <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>43</v>
@@ -3398,7 +3540,7 @@
         <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3407,19 +3549,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3431,16 +3573,16 @@
         <v>57</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3452,16 +3594,16 @@
         <v>57</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3473,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>34</v>
@@ -3482,7 +3624,7 @@
         <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3491,19 +3633,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3512,19 +3654,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3533,19 +3675,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G35" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3557,7 +3699,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
@@ -3569,7 +3711,7 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3581,7 +3723,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
@@ -3593,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3602,22 +3744,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3626,19 +3768,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G39" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3647,19 +3789,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="G40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3668,22 +3810,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3695,7 +3837,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>10</v>
@@ -3707,7 +3849,7 @@
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3719,7 +3861,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>47</v>
@@ -3728,7 +3870,7 @@
         <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3740,7 +3882,7 @@
         <v>50</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>47</v>
@@ -3749,7 +3891,7 @@
         <v>48</v>
       </c>
       <c r="G44" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3758,19 +3900,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="G45" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3782,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>9</v>
@@ -3794,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3806,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
@@ -3818,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3830,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>9</v>
@@ -3842,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3851,10 +3993,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>9</v>
@@ -3866,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3875,10 +4017,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>9</v>
@@ -3890,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3902,7 +4044,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>16</v>
@@ -3911,7 +4053,7 @@
         <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3920,19 +4062,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3941,19 +4083,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G53" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3965,7 +4107,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>15</v>
@@ -3974,7 +4116,7 @@
         <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3983,19 +4125,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G55" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4004,19 +4146,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4025,19 +4167,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G57" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4046,10 +4188,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>27</v>
@@ -4061,7 +4203,7 @@
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4070,10 +4212,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>27</v>
@@ -4085,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4094,13 +4236,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>156</v>
+        <v>327</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>30</v>
@@ -4109,7 +4251,7 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4118,13 +4260,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>30</v>
@@ -4133,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4142,13 +4284,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>30</v>
@@ -4157,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4169,7 +4311,7 @@
         <v>59</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>5</v>
@@ -4178,7 +4320,7 @@
         <v>60</v>
       </c>
       <c r="G63" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4187,22 +4329,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F64">
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4211,22 +4353,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F65">
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4238,16 +4380,16 @@
         <v>32</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4259,16 +4401,16 @@
         <v>32</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4280,10 +4422,10 @@
         <v>32</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>33</v>
@@ -4292,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4301,19 +4443,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G69" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4322,19 +4464,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G70" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4343,19 +4485,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="G71" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4364,19 +4506,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G72" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4385,22 +4527,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4412,7 +4554,7 @@
         <v>22</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>10</v>
@@ -4424,7 +4566,7 @@
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4433,19 +4575,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G75" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4454,19 +4596,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G76" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4475,22 +4617,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F77">
         <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4499,22 +4641,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F78">
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4523,22 +4665,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F79">
         <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4547,22 +4689,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F80">
         <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4571,22 +4713,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F81">
         <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4595,22 +4737,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F82">
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4619,22 +4761,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F83">
         <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4643,22 +4785,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F84">
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4670,7 +4812,7 @@
         <v>51</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>52</v>
@@ -4679,7 +4821,7 @@
         <v>53</v>
       </c>
       <c r="G85" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4688,22 +4830,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="F86">
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4712,19 +4854,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4736,19 +4878,19 @@
         <v>38</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4757,19 +4899,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G89" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4778,19 +4920,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G90" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4799,22 +4941,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F91">
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4823,22 +4965,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F92">
         <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4847,22 +4989,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4871,22 +5013,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4895,22 +5037,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4919,10 +5061,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>47</v>
@@ -4931,7 +5073,7 @@
         <v>48</v>
       </c>
       <c r="G96" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4940,19 +5082,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4964,7 +5106,7 @@
         <v>56</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>52</v>
@@ -4973,7 +5115,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4985,16 +5127,16 @@
         <v>56</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G99" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5003,19 +5145,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G100" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5024,19 +5166,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G101" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5048,16 +5190,16 @@
         <v>25</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5069,7 +5211,7 @@
         <v>11</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>10</v>
@@ -5081,7 +5223,7 @@
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5093,7 +5235,7 @@
         <v>11</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>10</v>
@@ -5105,7 +5247,7 @@
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5117,7 +5259,7 @@
         <v>36</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>34</v>
@@ -5126,7 +5268,7 @@
         <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5135,10 +5277,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>10</v>
@@ -5150,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5159,19 +5301,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G107" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5183,7 +5325,7 @@
         <v>61</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>5</v>
@@ -5192,7 +5334,7 @@
         <v>60</v>
       </c>
       <c r="G108" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5201,22 +5343,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5228,16 +5370,16 @@
         <v>2</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G110" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5246,10 +5388,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>47</v>
@@ -5258,7 +5400,7 @@
         <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5270,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>9</v>
@@ -5282,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5294,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>9</v>
@@ -5306,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5315,10 +5457,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>9</v>
@@ -5330,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5339,10 +5481,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>9</v>
@@ -5354,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5363,19 +5505,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G116" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5384,19 +5526,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G117" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5405,19 +5547,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G118" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5426,19 +5568,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="E119" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="G119" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5447,19 +5589,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G120" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5471,16 +5613,16 @@
         <v>28</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G121" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5492,16 +5634,16 @@
         <v>28</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G122" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5513,16 +5655,16 @@
         <v>28</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G123" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5531,22 +5673,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F124">
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5555,25 +5697,25 @@
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F125">
         <v>5</v>
       </c>
       <c r="G125" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>125</v>
@@ -5582,7 +5724,7 @@
         <v>62</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>63</v>
@@ -5591,7 +5733,7 @@
         <v>64</v>
       </c>
       <c r="G126" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5600,19 +5742,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>331</v>
+        <v>453</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G127" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5621,22 +5763,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>332</v>
+        <v>454</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G128" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>128</v>
@@ -5645,7 +5787,7 @@
         <v>26</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>27</v>
@@ -5657,10 +5799,10 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>129</v>
@@ -5669,43 +5811,43 @@
         <v>26</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F130">
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G131" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>131</v>
@@ -5714,7 +5856,7 @@
         <v>23</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>23</v>
@@ -5723,52 +5865,52 @@
         <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>321</v>
+        <v>455</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G134" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>134</v>
@@ -5777,7 +5919,7 @@
         <v>41</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>10</v>
@@ -5789,10 +5931,10 @@
         <v>3</v>
       </c>
       <c r="G135" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A136">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>135</v>
@@ -5801,7 +5943,7 @@
         <v>46</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>13</v>
@@ -5813,10 +5955,10 @@
         <v>4</v>
       </c>
       <c r="G136" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>136</v>
@@ -5825,7 +5967,7 @@
         <v>46</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>13</v>
@@ -5837,28 +5979,291 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A138">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G138" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G139" t="s">
+        <v>259</v>
+      </c>
+      <c r="H139" t="s">
+        <v>472</v>
+      </c>
+      <c r="I139" t="s">
+        <v>471</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="K139">
+        <v>10</v>
+      </c>
+      <c r="L139">
+        <v>15</v>
+      </c>
+      <c r="M139">
+        <v>200</v>
+      </c>
+      <c r="O139">
+        <v>20</v>
+      </c>
+      <c r="P139">
+        <v>6</v>
+      </c>
+      <c r="R139">
+        <v>75</v>
+      </c>
+      <c r="S139">
+        <v>4000</v>
+      </c>
+      <c r="T139" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G140" t="s">
+        <v>259</v>
+      </c>
+      <c r="H140" t="s">
+        <v>472</v>
+      </c>
+      <c r="I140" t="s">
+        <v>471</v>
+      </c>
+      <c r="J140" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="K140">
+        <v>5</v>
+      </c>
+      <c r="L140">
+        <v>10</v>
+      </c>
+      <c r="M140">
+        <v>100</v>
+      </c>
+      <c r="O140">
+        <v>20</v>
+      </c>
+      <c r="P140">
+        <v>8</v>
+      </c>
+      <c r="R140">
+        <v>40</v>
+      </c>
+      <c r="S140">
+        <v>2400</v>
+      </c>
+      <c r="T140" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G141" t="s">
+        <v>259</v>
+      </c>
+      <c r="H141" t="s">
+        <v>472</v>
+      </c>
+      <c r="I141" t="s">
+        <v>471</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="K141">
+        <v>10</v>
+      </c>
+      <c r="L141">
+        <v>12</v>
+      </c>
+      <c r="M141">
+        <v>50</v>
+      </c>
+      <c r="N141" t="s">
+        <v>481</v>
+      </c>
+      <c r="P141">
+        <v>6</v>
+      </c>
+      <c r="Q141">
+        <v>1000</v>
+      </c>
+      <c r="S141">
+        <v>4000</v>
+      </c>
+      <c r="T141" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G142" t="s">
+        <v>305</v>
+      </c>
+      <c r="H142" t="s">
+        <v>472</v>
+      </c>
+      <c r="I142" t="s">
+        <v>471</v>
+      </c>
+      <c r="J142" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="K142">
+        <v>3.125</v>
+      </c>
+      <c r="L142">
+        <v>5.625</v>
+      </c>
+      <c r="M142">
+        <v>50</v>
+      </c>
+      <c r="N142" t="s">
+        <v>481</v>
+      </c>
+      <c r="P142">
+        <v>8</v>
+      </c>
+      <c r="Q142">
+        <v>500</v>
+      </c>
+      <c r="T142" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G143" t="s">
+        <v>305</v>
+      </c>
+      <c r="H143" t="s">
+        <v>472</v>
+      </c>
+      <c r="I143" t="s">
+        <v>471</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="K143">
+        <f>25/3</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="L143">
+        <f>50/3</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="M143">
+        <v>50</v>
+      </c>
+      <c r="P143">
+        <v>8</v>
+      </c>
+      <c r="Q143">
+        <v>500</v>
+      </c>
+      <c r="T143" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -5887,7 +6292,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -5899,7 +6304,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -5980,13 +6385,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
@@ -6013,13 +6418,13 @@
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6031,7 +6436,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -6040,13 +6445,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -6058,13 +6463,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -6076,13 +6481,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -6094,13 +6499,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -6112,13 +6517,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
@@ -6130,13 +6535,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E7" s="5">
         <v>6</v>
@@ -6148,13 +6553,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>288</v>
+        <v>266</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E8" s="5">
         <v>7</v>
@@ -6166,13 +6571,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -6190,8 +6595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1623D2DD-2AAF-46F4-A228-AB579D2CF3FD}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6204,104 +6609,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="390" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="E1" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="E5" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>5</v>
       </c>
     </row>
@@ -6320,8 +6725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63061C67-B363-452A-A39F-8FB51F9B9B82}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6333,7 +6738,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6372,7 +6777,7 @@
         <v>80</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>81</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -6381,13 +6786,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="360" x14ac:dyDescent="0.25">
@@ -6396,13 +6801,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>453</v>
+        <v>440</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>442</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="345" x14ac:dyDescent="0.25">
@@ -6411,13 +6816,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>456</v>
+        <v>444</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>445</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -6426,13 +6831,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>457</v>
+        <v>443</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>446</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -6460,7 +6865,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6478,13 +6883,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -6493,13 +6898,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
@@ -6508,13 +6913,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -6523,13 +6928,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -6538,13 +6943,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="405" x14ac:dyDescent="0.25">
@@ -6553,13 +6958,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -6568,13 +6973,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6589,8 +6994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D3372-8E60-46D2-8A5A-AF4F9411474D}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6604,7 +7009,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6616,7 +7021,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -6625,13 +7030,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -6643,31 +7048,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</f>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>114</v>
+        <v>458</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -6677,13 +7082,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -6693,13 +7098,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -6709,13 +7114,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -6725,13 +7130,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="5"/>
     </row>

--- a/gerar_html/prescricoes.xlsx
+++ b/gerar_html/prescricoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1AC289667D0E8CCD/Documentos/Saúde/Prescrições/Prescrição_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1431" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B22C18C1-9D30-4C8A-AB7D-EB1AA16B544D}"/>
+  <xr:revisionPtr revIDLastSave="1694" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF53786-BDAD-400B-94FA-1D8AC13C8C64}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicamentos" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="536">
   <si>
     <t>NomeBusca</t>
   </si>
@@ -943,12 +943,6 @@
   </si>
   <si>
     <t>OrdemPrioridade</t>
-  </si>
-  <si>
-    <t>crise asma</t>
-  </si>
-  <si>
-    <t>crise asma, bronquite</t>
   </si>
   <si>
     <t>FormaFarmaceutica</t>
@@ -1169,10 +1163,6 @@
 Tomar 5 ml de 8 em 8 horas</t>
   </si>
   <si>
-    <t>1. Amoxicilina+clavulanato 500/125 mg _____ ___ comprimidos
-Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
-  </si>
-  <si>
     <t>1 - Betametasona 0,1mg/ml _____ 1 frasco
 Tomar 10 ml de 8 em 8 horas por 4 dias</t>
   </si>
@@ -1919,17 +1909,10 @@
     <t>calcRoundingMax</t>
   </si>
   <si>
-    <t>1 – Paracetamol 200 mg/ml solução _____ 1 frasco
-Dar [...] gotas de 6 em 6 horas se dor ou febre</t>
-  </si>
-  <si>
     <t>dor, febre</t>
   </si>
   <si>
     <t>[...]</t>
-  </si>
-  <si>
-    <t>TRUE</t>
   </si>
   <si>
     <t>Dose: 10-15 mg/kg/dose.
@@ -1939,10 +1922,6 @@
     <t>FLOOR</t>
   </si>
   <si>
-    <t>1 – Ibuprofeno 100mg/ml solução _____ 1 frasco
-Dar [...] gotas de 8 em 8 horas se dor ou febre</t>
-  </si>
-  <si>
     <t>Dose: 5-10 mg/kg/dose.
 Dose máxima: 40 mg/kg/dia ou 2400 mg/dia</t>
   </si>
@@ -1953,34 +1932,229 @@
     <t>calcUnit</t>
   </si>
   <si>
-    <t>1 – Dipirona sódica 50 mg/ml solução _____ 1 frasco
+    <t>ml</t>
+  </si>
+  <si>
+    <t>calcMaxMgPerDose</t>
+  </si>
+  <si>
+    <t>calcType</t>
+  </si>
+  <si>
+    <t>calcAgeRanges</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>[{"minMonths":6,"maxMonths":11,"dose":"2 mL (1 mg)"},{"minMonths":12,"maxMonths":71,"dose":"2,5 mL (1,25 mg)"},{"minMonths":72,"maxMonths":143,"dose":"5 mL (2,5 mg)"},{"minMonths":144,"dose":"10 mL (5 mg)"}]</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>1 - Ondansetrona 8 mg _____ 20 cp
+Tomar 1 comprimido de 8 em 8 horas se náuseas ou vômitos</t>
+  </si>
+  <si>
+    <t>alergia, asma</t>
+  </si>
+  <si>
+    <t>Dose: 1-2 mg/kg/dia. Dose máxima: 60 mg/dia</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina pó para suspensão 250 mg/5 ml _____ 1 frasco
+Dar [...] ml(s) de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>ageWeightHybrid</t>
+  </si>
+  <si>
+    <t>cólica, dor abdominal</t>
+  </si>
+  <si>
+    <t>&lt; 3 meses de idade: 3 gotas/kg/dose (1,5 mg/kg/dose) VO de 8/8 horas;
+3-11 meses de idade: 1,4 gota/kg/dose (0,7 mg/kg/dose) VO de 8/8 horas ou 10 gotas (5 mg) VO de 8/8 horas;
+1-6 anos de idade: 0,6-1 gota/kg/dose (0,3-0,5 mg/kg/dose) VO de 8/8 horas ou 10-20 gotas (5-10 mg) VO de 8/8 horas;
+&gt; 6 anos de idade: 20-40 gotas (10-20 mg) VO de 3-5 vezes ao dia.</t>
+  </si>
+  <si>
+    <t>gotas</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina+clavulanato 500/125 mg _____ ___ comprimidos
+Tomar 1 comprimido de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>1- Bromoprida 4 mg/ml _____ 1 frasco
+Dar [...] gotas de 8 em 8 horas se náuseas ou vômitos</t>
+  </si>
+  <si>
+    <t>1 - Desloratadina 0,5 mg/ml _____ 1 frasco
+Dar [...] ml(s) por dia</t>
+  </si>
+  <si>
+    <t>1 - Dipirona sódica 50 mg/ml solução _____ 1 frasco
 Dar [...] mls de 6 em 6 horas se dor ou febre</t>
   </si>
   <si>
-    <t>Dose: 10-12 mg/kg/dose. 
+    <t>1 - Escopolamina 10mg/ml gotas _____ 1 frasco
+Dar [...] gotas de 8 em 8 horas se dor</t>
+  </si>
+  <si>
+    <t>1 - Ibuprofeno 100mg/ml solução _____ 1 frasco
+Dar [...] gotas de 8 em 8 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>1 - Paracetamol 200 mg/ml solução _____ 1 frasco
+Dar [...] gotas de 6 em 6 horas se dor ou febre</t>
+  </si>
+  <si>
+    <t>1 - Prednisolona 5 mg/ml _____ 1 frasco
+Dar [...] ml(s) por dia até ___ dia(s)</t>
+  </si>
+  <si>
+    <t>Azitromicina</t>
+  </si>
+  <si>
+    <t>1 - Azitromicina 500 mg _____ 5 comprimidos
+Tomar 1 comprimido por dia por 5 dias</t>
+  </si>
+  <si>
+    <t>Antibiótico, macrolídeo</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>1 - Hidroxizina 2mg/ml _____ 1 frasco
+Dar [...] ml(s) de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>alergia, prurido</t>
+  </si>
+  <si>
+    <t>1 - Fexofenadina 6 mg/ml _____ 1 frasco
+Dar [...] de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>alergia, rinite</t>
+  </si>
+  <si>
+    <t>[{"minMonths":6,"maxMonths":23,"dose":"2,5 mL (15 mg)"},{"minMonths":24,"maxMonths":143,"dose":"5 mL (30 mg)"},{"minMonths":144,"dose":"10 mL (60 mg)"}]</t>
+  </si>
+  <si>
+    <t>Fexofenadina</t>
+  </si>
+  <si>
+    <t>Montelucaste</t>
+  </si>
+  <si>
+    <t>1 - Montelucaste 4 mg comprimido mastigável _____ 1 caixa
+Dar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>Antagonista de receptores de leucotrienos</t>
+  </si>
+  <si>
+    <t>1 - Montelucaste 5 mg comprimido mastigável _____ 1 caixa
+Dar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>1 - Montelucaste 10 mg comprimido _____ 1 caixa
+Tomar 1 comprimido por dia</t>
+  </si>
+  <si>
+    <t>asma, rinite, urticária</t>
+  </si>
+  <si>
+    <t>comprimido mastigável</t>
+  </si>
+  <si>
+    <t>1 - Montelucaste 4 mg sachê (grânulo) _____ 1 sachê
+Dar 1 sachê diluído por dia
+Obs.: Pode ser diluído em fórmula infantil, leite materno, ou misturado com uma colher de purê de maçã, cenoura, arroz ou sorvete.</t>
+  </si>
+  <si>
+    <t>1 - Amoxicilina + clavulanato pó p/ susp 50/12,5 mg/ml _____ 1 frasco
+Dar [...] ml(s) de 8 em 8 horas por ___ dias</t>
+  </si>
+  <si>
+    <t>Dose: 25-50 mg/kg/dia (ou 8,3-16,7 mg/kg/dose).
+Dose máxima: 10 ml/dose</t>
+  </si>
+  <si>
+    <t>Dose: 25-45 mg/kg/dia de amoxicilina (ou 3,125-5,625 mg/kg/dose de amoxicilina).
+Dose máxima: 20 ml/dose</t>
+  </si>
+  <si>
+    <t>Dose: 0,5-1 mg/kg/dia (ou 0,17-0,33 mg/kg/dose).
+Dose máxima: 58 gotas/dose (10 mg/dose)</t>
+  </si>
+  <si>
+    <t>6m a 1ano: 1 mg (2ml)/dia;
+1 anos a 5 anos: 1,25 mg (2,5ml)/dia;
+6 a 11 anos: 2,5 mg (5 ml) /dia;
+&gt; 12 anos: 5 mg (10 ml)/dia</t>
+  </si>
+  <si>
+    <t>Dose: 10-12 mg/kg/dose.
 Dose máxima: 20 ml/dose ou 4000 mg/dia</t>
   </si>
   <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>calcMaxMgPerDose</t>
-  </si>
-  <si>
-    <t>1 - Amoxicilina + clavulanato pó p/ susp  50/12,5 mg/ml _____ ___ 1 frasco
-Tomar [...] ml(s) de 8 em 8 horas por ___ dias</t>
-  </si>
-  <si>
-    <t>Dose: 25-45 mg/kg/dia de amoxicilina (ou 3,125-5,625 mg/kg/dose de amoxicilina). 
-Dose máxima: 20 ml/dose</t>
-  </si>
-  <si>
-    <t>1 - Amoxicilina pó para suspensão 250 mg/5 ml _____ 1 frasco
-Tomar [...] ml(s) de 8 em 8 horas por ___ dias</t>
-  </si>
-  <si>
-    <t>Dose: 25-50 mg/kg/dia (ou 8,3-16,7 mg/kg/dose). 
-Dose máxima: 10 ml/dose</t>
+    <t>Dose: 0,7 mg/kg/dose.
+Dose máxima: 2 mg/kg/dia ou 100 mg/dia.</t>
+  </si>
+  <si>
+    <t>6m a &lt;2a: 2,5 mL/dose;
+2-11a: 5 mL/dose;
+≥12a: 10 mL/dose</t>
+  </si>
+  <si>
+    <t>[ { "minMonths": 0, "maxMonths": 2, "description": "&lt; 3 meses", "calcDoseMinMgKg": 1,5, "calcDoseMaxMgKg": 1,5, "calcFrequencyHours": 8, "calcUnit": "gotas" }, { "minMonths": 3, "maxMonths": 11, "description": "3-11 meses", "calcDoseMinMgKg": 0,7, "calcDoseMaxMgKg": 0,7, "calcFrequencyHours": 8, "calcUnit": "gotas", "alternativeDose": "ou 10" }, { "minMonths": 12, "maxMonths": 71, "description": "1-6 anos", "calcDoseMinMgKg": 0,3, "calcDoseMaxMgKg": 0,5, "calcFrequencyHours": 8, "calcUnit": "gotas", "alternativeDose": "ou 10-20" }, { "minMonths": 72, "description": "&gt; 6 anos", "dose": "20-40" }
+]</t>
+  </si>
+  <si>
+    <t>Pelargonium Sidoides, Kaloba</t>
+  </si>
+  <si>
+    <t>1 - Pelargonium Sidoides (Kaloba®) _____ 1 frasco
+Dar ___ gotas de 8 em 8 horas</t>
+  </si>
+  <si>
+    <t>Fitoterápico: Imunomodulador</t>
+  </si>
+  <si>
+    <t>amigdalite, bronquite, resfriado, rinofaringite, sinusite</t>
+  </si>
+  <si>
+    <t>Fluticasona</t>
+  </si>
+  <si>
+    <t>1 - Fluticasona suspensão spray 27,5 mcg/dose _____ 1 frasco
+Aplicar ___ jato(s) por dia em cada narina</t>
+  </si>
+  <si>
+    <t>suspensão spray</t>
+  </si>
+  <si>
+    <t>Ipratrópio</t>
+  </si>
+  <si>
+    <t>1 - Brometo de ipratrópio ____ 1 frasco
+Realizar nebulização com ___ gotas de 6 em 6 horas</t>
+  </si>
+  <si>
+    <t>Anticolinérgico</t>
+  </si>
+  <si>
+    <t>asma, bronquite</t>
+  </si>
+  <si>
+    <t>solução para nebulização</t>
   </si>
 </sst>
 </file>
@@ -2108,6 +2282,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="44">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2386,18 +2572,6 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2416,19 +2590,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:T143" totalsRowShown="0">
-  <autoFilter ref="A1:T143" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F138">
-    <sortCondition ref="B1:B138"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:V158" totalsRowShown="0">
+  <autoFilter ref="A1:V158" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V158">
+    <sortCondition ref="B1:B158"/>
   </sortState>
-  <tableColumns count="20">
+  <tableColumns count="22">
     <tableColumn id="7" xr3:uid="{EEA224EE-B017-42F5-A417-487E2B86AD5D}" name="ID_Item">
       <calculatedColumnFormula>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{00D107C9-5770-4523-8A77-BC2E8CCDFA3F}" name="OrdemPrioridade"/>
     <tableColumn id="6" xr3:uid="{A2A03C33-701E-4A02-84BD-0D3C40E0270C}" name="FormaFarmaceutica"/>
     <tableColumn id="8" xr3:uid="{037F36DC-527F-4AE8-A6F4-3169AA433215}" name="isCalculable"/>
@@ -2444,106 +2618,108 @@
     <tableColumn id="15" xr3:uid="{ADD029AD-4302-4DFB-A730-84FEBE8F1506}" name="calcMaxDoseMgKgDay"/>
     <tableColumn id="16" xr3:uid="{F50782CB-2422-484A-AEE5-602A7DE0A58A}" name="calcMaxDoseMgDay"/>
     <tableColumn id="17" xr3:uid="{080F5EE5-E42D-4421-BF68-04806C3A7C35}" name="calcRoundingMax"/>
+    <tableColumn id="21" xr3:uid="{52059363-AB0C-41B1-8B12-D680D51CD342}" name="calcType"/>
+    <tableColumn id="22" xr3:uid="{348BFE6C-7C07-441D-84E5-0D88FF3D68F9}" name="calcAgeRanges"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:E6" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="41">
       <calculatedColumnFormula>ROW() - ROW(Tabela2[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}" name="Tabela57" displayName="Tabela57" ref="A1:E9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}" name="Tabela57" displayName="Tabela57" ref="A1:E9" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:E9" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
     <sortCondition ref="E1:E9"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{255D6023-30BF-414A-B3B5-09A8AED4AD40}" name="ID_Item" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{255D6023-30BF-414A-B3B5-09A8AED4AD40}" name="ID_Item" dataDxfId="34">
       <calculatedColumnFormula>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{8C75D187-576A-41EF-9BC9-337001D161C6}" name="NomeBusca" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{7A836061-FA92-4D6E-A1CB-B0A3080FF4E2}" name="ConteudoTexto" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{9C7516CD-131C-4A90-BC19-727B1919928E}" name="Categoria" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{D9BE6F3B-192E-46DB-ADBD-41AC809A383A}" name="OrdemPrioridade" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{8C75D187-576A-41EF-9BC9-337001D161C6}" name="NomeBusca" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{7A836061-FA92-4D6E-A1CB-B0A3080FF4E2}" name="ConteudoTexto" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{9C7516CD-131C-4A90-BC19-727B1919928E}" name="Categoria" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{D9BE6F3B-192E-46DB-ADBD-41AC809A383A}" name="OrdemPrioridade" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:E6" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C07F2220-FEC5-4C0B-AB14-F80860FCB6A0}" name="ID_Item" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{C07F2220-FEC5-4C0B-AB14-F80860FCB6A0}" name="ID_Item" dataDxfId="27">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F6AB2AED-7D50-4A14-A3D8-3D697CD7C3E6}" name="NomeBusca" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{24DCE466-5828-477A-94D8-8B94F125CA52}" name="ConteudoTexto" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{544BC52C-0699-476B-9E91-F8010861B484}" name="Categoria" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{0A44EF13-A692-417E-90F4-EEE1E0C399BB}" name="OrdemPrioridade" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{F6AB2AED-7D50-4A14-A3D8-3D697CD7C3E6}" name="NomeBusca" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{24DCE466-5828-477A-94D8-8B94F125CA52}" name="ConteudoTexto" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{544BC52C-0699-476B-9E91-F8010861B484}" name="Categoria" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{0A44EF13-A692-417E-90F4-EEE1E0C399BB}" name="OrdemPrioridade" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:D7" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="20">
       <calculatedColumnFormula>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:D8" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="14">
       <calculatedColumnFormula>ROW() - ROW(Tabela4[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:E8" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
     <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="8">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2867,10 +3043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE9DEBA-C453-4102-816C-FDB2AD0D57A3}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:T143"/>
+  <dimension ref="A1:V158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="D138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,7 +3059,7 @@
     <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
@@ -2894,11 +3070,13 @@
     <col min="18" max="18" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2916,49 +3094,55 @@
         <v>252</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U1" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>1</v>
@@ -2967,7 +3151,7 @@
         <v>247</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>248</v>
@@ -2976,10 +3160,13 @@
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>2</v>
@@ -2988,7 +3175,7 @@
         <v>221</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -3000,10 +3187,13 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>3</v>
@@ -3012,7 +3202,7 @@
         <v>249</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>250</v>
@@ -3021,10 +3211,13 @@
         <v>251</v>
       </c>
       <c r="G4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>4</v>
@@ -3033,7 +3226,7 @@
         <v>170</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>126</v>
@@ -3042,10 +3235,13 @@
         <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="H5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>5</v>
@@ -3054,7 +3250,7 @@
         <v>239</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>211</v>
@@ -3063,10 +3259,13 @@
         <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="H6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>6</v>
@@ -3075,7 +3274,7 @@
         <v>246</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>115</v>
@@ -3084,10 +3283,13 @@
         <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>7</v>
@@ -3096,7 +3298,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>215</v>
@@ -3105,19 +3307,22 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>310</v>
+        <v>483</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>215</v>
@@ -3126,175 +3331,258 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="H9" t="s">
+        <v>499</v>
+      </c>
+      <c r="I9" t="s">
+        <v>467</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="K9">
+        <f>25/3</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="L9">
+        <f>50/3</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="M9">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>473</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>500</v>
+      </c>
+      <c r="T9" t="s">
+        <v>469</v>
+      </c>
+      <c r="U9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>303</v>
+      </c>
+      <c r="H11" t="s">
+        <v>499</v>
+      </c>
+      <c r="I11" t="s">
+        <v>467</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="K11">
+        <v>3.125</v>
+      </c>
+      <c r="L11">
+        <v>5.625</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>473</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>500</v>
+      </c>
+      <c r="T11" t="s">
+        <v>469</v>
+      </c>
+      <c r="U11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="G12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="G13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>143</v>
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="H15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="H16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>29</v>
@@ -3306,2401 +3594,2921 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>257</v>
+      </c>
+      <c r="H20" t="s">
+        <v>499</v>
+      </c>
+      <c r="I20" t="s">
+        <v>467</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="K20">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L20">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>487</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="T20" t="s">
+        <v>469</v>
+      </c>
+      <c r="U20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18">
+      <c r="F21">
         <v>3</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G21" t="s">
+        <v>288</v>
+      </c>
+      <c r="H21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>289</v>
+      </c>
+      <c r="H23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>289</v>
+      </c>
+      <c r="H24" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="H25" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>29</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="H30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" t="s">
+        <v>292</v>
+      </c>
+      <c r="H31" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>256</v>
+      </c>
+      <c r="H32" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>256</v>
+      </c>
+      <c r="H35" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>293</v>
+      </c>
+      <c r="H36" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s">
+        <v>256</v>
+      </c>
+      <c r="H37" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" t="s">
+        <v>255</v>
+      </c>
+      <c r="H38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D39" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>40</v>
       </c>
-      <c r="G31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="D41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="H41" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="D42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>256</v>
+      </c>
+      <c r="H42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="H43" t="s">
+        <v>499</v>
+      </c>
+      <c r="I43" t="s">
+        <v>467</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="N43" t="s">
+        <v>473</v>
+      </c>
+      <c r="P43">
+        <v>24</v>
+      </c>
+      <c r="T43" t="s">
+        <v>469</v>
+      </c>
+      <c r="U43" t="s">
+        <v>479</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" t="s">
+        <v>254</v>
+      </c>
+      <c r="H44" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="D45" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G45" t="s">
+        <v>255</v>
+      </c>
+      <c r="H45" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="D46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>256</v>
+      </c>
+      <c r="H46" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G40" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>44</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G45" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>256</v>
+      </c>
+      <c r="H47" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H48" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" t="s">
+        <v>256</v>
+      </c>
+      <c r="H49" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" t="s">
+        <v>256</v>
+      </c>
+      <c r="H50" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G47" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="C51" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51">
         <v>1</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="G51" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>256</v>
+      </c>
+      <c r="H52" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>257</v>
+      </c>
+      <c r="H53" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G54" t="s">
+        <v>257</v>
+      </c>
+      <c r="H54" t="s">
+        <v>499</v>
+      </c>
+      <c r="I54" t="s">
+        <v>467</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>12</v>
+      </c>
+      <c r="M54">
+        <v>50</v>
+      </c>
+      <c r="N54" t="s">
+        <v>473</v>
+      </c>
+      <c r="P54">
+        <v>6</v>
+      </c>
+      <c r="Q54">
+        <v>1000</v>
+      </c>
+      <c r="S54">
+        <v>4000</v>
+      </c>
+      <c r="T54" t="s">
+        <v>469</v>
+      </c>
+      <c r="U54" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>256</v>
+      </c>
+      <c r="H55" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>257</v>
+      </c>
+      <c r="H56" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="D57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>256</v>
+      </c>
+      <c r="H57" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>49</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="D58" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>50</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="D59" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G59" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>51</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="D60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>256</v>
+      </c>
+      <c r="H60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="195" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G61" t="s">
+        <v>257</v>
+      </c>
+      <c r="H61" t="s">
+        <v>499</v>
+      </c>
+      <c r="I61" t="s">
+        <v>467</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="M61">
+        <v>10</v>
+      </c>
+      <c r="N61" t="s">
+        <v>487</v>
+      </c>
+      <c r="O61">
+        <v>20</v>
+      </c>
+      <c r="P61">
+        <v>8</v>
+      </c>
+      <c r="T61" t="s">
+        <v>469</v>
+      </c>
+      <c r="U61" t="s">
+        <v>484</v>
+      </c>
+      <c r="V61" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G52" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>52</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="D62" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" t="s">
+        <v>256</v>
+      </c>
+      <c r="H62" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G63" t="s">
+        <v>257</v>
+      </c>
+      <c r="H63" t="s">
+        <v>499</v>
+      </c>
+      <c r="I63" t="s">
+        <v>467</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="M63">
+        <v>6</v>
+      </c>
+      <c r="N63" t="s">
+        <v>473</v>
+      </c>
+      <c r="P63">
+        <v>12</v>
+      </c>
+      <c r="T63" t="s">
+        <v>469</v>
+      </c>
+      <c r="U63" t="s">
+        <v>479</v>
+      </c>
+      <c r="V63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G53" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="D64" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" t="s">
+        <v>256</v>
+      </c>
+      <c r="H64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="D65" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G65" t="s">
+        <v>256</v>
+      </c>
+      <c r="H65" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
+        <v>530</v>
+      </c>
+      <c r="H66" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G55" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>55</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="D67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67" t="s">
+        <v>288</v>
+      </c>
+      <c r="H67" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G56" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="D68" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>288</v>
+      </c>
+      <c r="H68" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>288</v>
+      </c>
+      <c r="H69" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>295</v>
+      </c>
+      <c r="H70" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H71" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G57" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>57</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="D72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" t="s">
+        <v>296</v>
+      </c>
+      <c r="H72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
-      <c r="G58" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>58</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-      <c r="G59" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>59</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-      <c r="G60" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>60</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-      <c r="G61" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>61</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-      <c r="G62" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>62</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G63" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-      <c r="G64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>64</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-      <c r="G65" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G66" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>66</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>67</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>68</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G69" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>69</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G70" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>70</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G71" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>71</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G72" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>72</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H73" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="F74">
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H74" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s">
+        <v>259</v>
+      </c>
+      <c r="H76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>257</v>
+      </c>
+      <c r="H77" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G78" t="s">
+        <v>256</v>
+      </c>
+      <c r="H78" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" t="s">
+        <v>254</v>
+      </c>
+      <c r="H79" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80" t="s">
+        <v>257</v>
+      </c>
+      <c r="H80" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G81" t="s">
+        <v>293</v>
+      </c>
+      <c r="H81" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>256</v>
+      </c>
+      <c r="H82" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G83" t="s">
+        <v>257</v>
+      </c>
+      <c r="H83" t="s">
+        <v>499</v>
+      </c>
+      <c r="I83" t="s">
+        <v>467</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="K83">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L83">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>473</v>
+      </c>
+      <c r="P83">
+        <v>8</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>100</v>
+      </c>
+      <c r="T83" t="s">
+        <v>469</v>
+      </c>
+      <c r="U83" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>256</v>
+      </c>
+      <c r="H84" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G85" t="s">
+        <v>257</v>
+      </c>
+      <c r="H85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I85" t="s">
+        <v>467</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="K85">
+        <v>5</v>
+      </c>
+      <c r="L85">
+        <v>10</v>
+      </c>
+      <c r="M85">
+        <v>100</v>
+      </c>
+      <c r="N85" t="s">
+        <v>487</v>
+      </c>
+      <c r="O85">
+        <v>20</v>
+      </c>
+      <c r="P85">
+        <v>8</v>
+      </c>
+      <c r="R85">
+        <v>40</v>
+      </c>
+      <c r="S85">
+        <v>2400</v>
+      </c>
+      <c r="T85" t="s">
+        <v>469</v>
+      </c>
+      <c r="U85" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C86" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G86" t="s">
+        <v>256</v>
+      </c>
+      <c r="H86" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G87" t="s">
+        <v>256</v>
+      </c>
+      <c r="H87" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>297</v>
+      </c>
+      <c r="H88" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89" t="s">
+        <v>297</v>
+      </c>
+      <c r="H89" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G76" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>76</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="D90" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>297</v>
+      </c>
+      <c r="H90" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
-      <c r="G77" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>77</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-      <c r="G78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>78</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-      <c r="G79" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>79</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-      <c r="G80" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>80</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F81">
-        <v>3</v>
-      </c>
-      <c r="G81" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>81</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
-      <c r="G82" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>82</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-      <c r="G83" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>83</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-      <c r="G84" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>84</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G85" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>85</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F86">
-        <v>2</v>
-      </c>
-      <c r="G86" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>86</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G87" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>87</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>88</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G89" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>89</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G90" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>90</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="F91">
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H91" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>436</v>
+        <v>227</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H92" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H93" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H94" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H95" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>140</v>
+        <v>531</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>404</v>
+        <v>532</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>47</v>
+        <v>533</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="H96" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="G97" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H97" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98" t="s">
+        <v>257</v>
+      </c>
+      <c r="H98" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G98" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>98</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="G99" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>120</v>
+        <v>176</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
       </c>
       <c r="G100" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="G101" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G102" t="s">
+        <v>256</v>
+      </c>
+      <c r="H102" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103" t="s">
+        <v>303</v>
+      </c>
+      <c r="H103" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>103</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G102" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>102</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-      <c r="G103" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>103</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>411</v>
-      </c>
       <c r="D104" s="4" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="F104">
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="H104" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>256</v>
+      </c>
+      <c r="H105" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>256</v>
+      </c>
+      <c r="H106" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>256</v>
+      </c>
+      <c r="H107" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G108" t="s">
+        <v>256</v>
+      </c>
+      <c r="H108" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G109" t="s">
+        <v>256</v>
+      </c>
+      <c r="H109" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" t="s">
+        <v>256</v>
+      </c>
+      <c r="H110" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G111" t="s">
+        <v>254</v>
+      </c>
+      <c r="H111" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G112" t="s">
+        <v>254</v>
+      </c>
+      <c r="H112" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G113" t="s">
+        <v>513</v>
+      </c>
+      <c r="H113" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G114" t="s">
+        <v>513</v>
+      </c>
+      <c r="H114" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G115" t="s">
+        <v>513</v>
+      </c>
+      <c r="H115" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G116" t="s">
+        <v>296</v>
+      </c>
+      <c r="H116" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G117" t="s">
+        <v>254</v>
+      </c>
+      <c r="H117" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" t="s">
+        <v>299</v>
+      </c>
+      <c r="H118" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>256</v>
+      </c>
+      <c r="H119" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120" t="s">
+        <v>256</v>
+      </c>
+      <c r="H120" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C121" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G121" t="s">
+        <v>293</v>
+      </c>
+      <c r="H121" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122" t="s">
+        <v>256</v>
+      </c>
+      <c r="H122" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G123" t="s">
+        <v>256</v>
+      </c>
+      <c r="H123" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>105</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="D124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G124" t="s">
+        <v>256</v>
+      </c>
+      <c r="H124" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106">
-        <v>3</v>
-      </c>
-      <c r="G106" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>106</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G107" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>107</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G108" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>108</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>109</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G110" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>110</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G111" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>111</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>112</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>113</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>114</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>115</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G116" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>116</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G117" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>117</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G118" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>118</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G119" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>119</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G120" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>120</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G121" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>121</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G122" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>122</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G123" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>123</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F124">
-        <v>2</v>
-      </c>
-      <c r="G124" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>124</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>137</v>
@@ -5709,561 +6517,910 @@
         <v>138</v>
       </c>
       <c r="F125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="H125" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>452</v>
+        <v>320</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="G126" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="H126" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="G127" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H127" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="G128" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H128" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F129">
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H129" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="F130">
         <v>1</v>
       </c>
       <c r="G130" t="s">
+        <v>256</v>
+      </c>
+      <c r="H130" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G131" t="s">
+        <v>257</v>
+      </c>
+      <c r="H131" t="s">
+        <v>499</v>
+      </c>
+      <c r="I131" t="s">
+        <v>467</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="K131">
+        <v>10</v>
+      </c>
+      <c r="L131">
+        <v>15</v>
+      </c>
+      <c r="M131">
+        <v>200</v>
+      </c>
+      <c r="N131" t="s">
+        <v>487</v>
+      </c>
+      <c r="O131">
+        <v>20</v>
+      </c>
+      <c r="P131">
+        <v>6</v>
+      </c>
+      <c r="R131">
+        <v>75</v>
+      </c>
+      <c r="S131">
+        <v>4000</v>
+      </c>
+      <c r="T131" t="s">
+        <v>469</v>
+      </c>
+      <c r="U131" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>256</v>
+      </c>
+      <c r="H132" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>256</v>
+      </c>
+      <c r="H133" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G134" t="s">
+        <v>257</v>
+      </c>
+      <c r="H134" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G135" t="s">
+        <v>301</v>
+      </c>
+      <c r="H135" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G136" t="s">
+        <v>294</v>
+      </c>
+      <c r="H136" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G137" t="s">
+        <v>292</v>
+      </c>
+      <c r="H137" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G138" t="s">
+        <v>302</v>
+      </c>
+      <c r="H138" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G139" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>130</v>
-      </c>
-      <c r="B131" s="4" t="s">
+      <c r="H139" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G140" t="s">
+        <v>257</v>
+      </c>
+      <c r="H140" t="s">
+        <v>499</v>
+      </c>
+      <c r="I140" t="s">
+        <v>467</v>
+      </c>
+      <c r="J140" t="s">
+        <v>482</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>3</v>
+      </c>
+      <c r="N140" t="s">
+        <v>473</v>
+      </c>
+      <c r="P140">
+        <v>24</v>
+      </c>
+      <c r="Q140">
+        <v>60</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>60</v>
+      </c>
+      <c r="T140" t="s">
+        <v>469</v>
+      </c>
+      <c r="U140" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G141" t="s">
+        <v>256</v>
+      </c>
+      <c r="H141" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" t="s">
+        <v>256</v>
+      </c>
+      <c r="H142" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G143" t="s">
+        <v>257</v>
+      </c>
+      <c r="H143" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>143</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144" t="s">
+        <v>256</v>
+      </c>
+      <c r="H144" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>144</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F145">
+        <v>5</v>
+      </c>
+      <c r="G145" t="s">
+        <v>258</v>
+      </c>
+      <c r="H145" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>145</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G146" t="s">
+        <v>285</v>
+      </c>
+      <c r="H146" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G147" t="s">
+        <v>303</v>
+      </c>
+      <c r="H147" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G148" t="s">
+        <v>303</v>
+      </c>
+      <c r="H148" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>148</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>288</v>
+      </c>
+      <c r="H149" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>149</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150" t="s">
+        <v>288</v>
+      </c>
+      <c r="H150" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>150</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D131" s="4" t="s">
+      <c r="C151" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G131" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>131</v>
-      </c>
-      <c r="B132" s="4" t="s">
+      <c r="G151" t="s">
+        <v>256</v>
+      </c>
+      <c r="H151" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C152" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D152" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G132" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>132</v>
-      </c>
-      <c r="B133" s="4" t="s">
+      <c r="G152" t="s">
+        <v>255</v>
+      </c>
+      <c r="H152" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D133" s="4" t="s">
+      <c r="C153" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G133" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>133</v>
-      </c>
-      <c r="B134" s="4" t="s">
+      <c r="G153" t="s">
+        <v>256</v>
+      </c>
+      <c r="H153" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>153</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C154" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G154" t="s">
+        <v>256</v>
+      </c>
+      <c r="H154" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>154</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="G155" t="s">
+        <v>256</v>
+      </c>
+      <c r="H155" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>155</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>256</v>
+      </c>
+      <c r="H156" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>156</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G134" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>134</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C135" s="3" t="s">
+      <c r="D157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>256</v>
+      </c>
+      <c r="H157" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135">
-        <v>3</v>
-      </c>
-      <c r="G135" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>135</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136">
-        <v>4</v>
-      </c>
-      <c r="G136" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>136</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137">
-        <v>4</v>
-      </c>
-      <c r="G137" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>137</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D138" s="4" t="s">
+      <c r="D158" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G138" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>138</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G139" t="s">
-        <v>259</v>
-      </c>
-      <c r="H139" t="s">
-        <v>472</v>
-      </c>
-      <c r="I139" t="s">
-        <v>471</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="K139">
-        <v>10</v>
-      </c>
-      <c r="L139">
-        <v>15</v>
-      </c>
-      <c r="M139">
-        <v>200</v>
-      </c>
-      <c r="O139">
-        <v>20</v>
-      </c>
-      <c r="P139">
-        <v>6</v>
-      </c>
-      <c r="R139">
-        <v>75</v>
-      </c>
-      <c r="S139">
-        <v>4000</v>
-      </c>
-      <c r="T139" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>139</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G140" t="s">
-        <v>259</v>
-      </c>
-      <c r="H140" t="s">
-        <v>472</v>
-      </c>
-      <c r="I140" t="s">
-        <v>471</v>
-      </c>
-      <c r="J140" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="K140">
-        <v>5</v>
-      </c>
-      <c r="L140">
-        <v>10</v>
-      </c>
-      <c r="M140">
-        <v>100</v>
-      </c>
-      <c r="O140">
-        <v>20</v>
-      </c>
-      <c r="P140">
-        <v>8</v>
-      </c>
-      <c r="R140">
-        <v>40</v>
-      </c>
-      <c r="S140">
-        <v>2400</v>
-      </c>
-      <c r="T140" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>140</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G141" t="s">
-        <v>259</v>
-      </c>
-      <c r="H141" t="s">
-        <v>472</v>
-      </c>
-      <c r="I141" t="s">
-        <v>471</v>
-      </c>
-      <c r="J141" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="K141">
-        <v>10</v>
-      </c>
-      <c r="L141">
-        <v>12</v>
-      </c>
-      <c r="M141">
-        <v>50</v>
-      </c>
-      <c r="N141" t="s">
-        <v>481</v>
-      </c>
-      <c r="P141">
-        <v>6</v>
-      </c>
-      <c r="Q141">
-        <v>1000</v>
-      </c>
-      <c r="S141">
-        <v>4000</v>
-      </c>
-      <c r="T141" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>141</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G142" t="s">
-        <v>305</v>
-      </c>
-      <c r="H142" t="s">
-        <v>472</v>
-      </c>
-      <c r="I142" t="s">
-        <v>471</v>
-      </c>
-      <c r="J142" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="K142">
-        <v>3.125</v>
-      </c>
-      <c r="L142">
-        <v>5.625</v>
-      </c>
-      <c r="M142">
-        <v>50</v>
-      </c>
-      <c r="N142" t="s">
-        <v>481</v>
-      </c>
-      <c r="P142">
-        <v>8</v>
-      </c>
-      <c r="Q142">
-        <v>500</v>
-      </c>
-      <c r="T142" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
-        <v>142</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G143" t="s">
-        <v>305</v>
-      </c>
-      <c r="H143" t="s">
-        <v>472</v>
-      </c>
-      <c r="I143" t="s">
-        <v>471</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="K143">
-        <f>25/3</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="L143">
-        <f>50/3</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="M143">
-        <v>50</v>
-      </c>
-      <c r="P143">
-        <v>8</v>
-      </c>
-      <c r="Q143">
-        <v>500</v>
-      </c>
-      <c r="T143" t="s">
-        <v>474</v>
+      <c r="E158" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G158" t="s">
+        <v>304</v>
+      </c>
+      <c r="H158" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6292,7 +7449,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6424,7 +7581,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6466,7 +7623,7 @@
         <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>235</v>
@@ -6487,7 +7644,7 @@
         <v>237</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -6499,13 +7656,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -6517,13 +7674,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
@@ -6538,10 +7695,10 @@
         <v>238</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E7" s="5">
         <v>6</v>
@@ -6553,13 +7710,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E8" s="5">
         <v>7</v>
@@ -6571,13 +7728,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -6610,7 +7767,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -6633,10 +7790,10 @@
         <v>231</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
@@ -6647,13 +7804,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E3" s="13">
         <v>2</v>
@@ -6667,10 +7824,10 @@
         <v>99</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E4" s="13">
         <v>3</v>
@@ -6681,13 +7838,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E5" s="13">
         <v>4</v>
@@ -6701,10 +7858,10 @@
         <v>145</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E6" s="13">
         <v>5</v>
@@ -6738,7 +7895,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6777,7 +7934,7 @@
         <v>80</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -6789,7 +7946,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>82</v>
@@ -6801,13 +7958,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="345" x14ac:dyDescent="0.25">
@@ -6816,13 +7973,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -6831,13 +7988,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>446</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -6865,7 +8022,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -7009,7 +8166,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -7069,7 +8226,7 @@
         <v>112</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>107</v>

--- a/gerar_html/prescricoes.xlsx
+++ b/gerar_html/prescricoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1AC289667D0E8CCD/Documentos/Saúde/Prescrições/Prescrição_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1694" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF53786-BDAD-400B-94FA-1D8AC13C8C64}"/>
+  <xr:revisionPtr revIDLastSave="2023" documentId="13_ncr:1_{243FE48A-7C6A-41E4-8FFF-32D7F4E6C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC64DD7A-BEF4-48B7-BABF-A45803C220B0}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" firstSheet="5" activeTab="7" xr2:uid="{4C639DE4-733A-4E7F-8720-AC3921A2C161}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicamentos" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Procedimentos" sheetId="3" r:id="rId5"/>
     <sheet name="Orientacoes" sheetId="4" r:id="rId6"/>
     <sheet name="Outros" sheetId="5" r:id="rId7"/>
+    <sheet name="PortaEInternacao" sheetId="10" r:id="rId8"/>
+    <sheet name="ViasDeAdministracao" sheetId="8" r:id="rId9"/>
+    <sheet name="Aprazamentos" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Renovação_receita" localSheetId="6">Outros!$D$3</definedName>
@@ -44,8 +47,147 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="3">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="3">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>[
+  {
+    "nome": "Ceftriaxona 1g 12/12h",
+    "texto": "Ceftriaxona 1g, 1g (1 frasco), EV, 12/12h",
+    "componentes": [
+      {
+        "item": "Cloreto de sódio à 0,9%%",
+        "dose": "100",
+        "unidade": "ml"
+      }
+    ]
+  },
+  {
+    "nome": "Ceftriaxona 2g 24/24h",
+    "texto": "Ceftriaxona 1g, 2g (2 frascos), EV, 24/24h"
+  }
+]</code>
+    </pythonScript>
+    <pythonScript>
+      <code>[
+  {
+    "nome": "Fentanil 10 mcg BIC",
+    "texto": "Fentanil 50 mcg/ml, 20 ml, BIC, vazão ACM. Concentração: 10 mcg/ml",
+    "componentes":[
+      {
+        "item": "Glicose à 5%%",
+        "dose": "80",
+        "unidade": "ml"
+      }
+                  ]
+  },
+]</code>
+    </pythonScript>
+    <pythonScript>
+      <code>[
+    {
+    "nome": "Midazolam 1 mg/ml BIC (150 ml)",
+    "texto": "Midazolam 5 mg/ml, 30 ml, BIC, vazão ACM. Concentração: 1 mg/ml",
+    "componentes":[
+      {
+        "item": "SF 0,9%% ou SG 5%%",
+        "dose": "120",
+        "unidade": "ml"
+      }
+                  ]
+    },
+    {
+    "nome": "Midazolam 1 mg/ml BIC (250ml)",
+    "texto": "Midazolam 5 mg/ml, 50 ml, BIC, vazão ACM. Concentração: 1 mg/ml",
+    "componentes":[
+        {
+        "item": "SF 0,9%% ou SG 5%%",
+        "dose": "200",
+        "unidade": "ml"
+        }
+                    ]
+    },
+]</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="633">
   <si>
     <t>NomeBusca</t>
   </si>
@@ -2156,6 +2298,304 @@
   <si>
     <t>solução para nebulização</t>
   </si>
+  <si>
+    <t>1 - Loratadina 1 mg/ml ___________________ 1 frasco
+Dar ___ mls por dia</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>VO</t>
+  </si>
+  <si>
+    <t>Via oral</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Endovenoso</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Imtramuscular</t>
+  </si>
+  <si>
+    <t>Via inalatória</t>
+  </si>
+  <si>
+    <t>Via SNE</t>
+  </si>
+  <si>
+    <t>Via sondanasoentérica</t>
+  </si>
+  <si>
+    <t>Tópico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigla </t>
+  </si>
+  <si>
+    <t>Horário</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ItemPrincipal</t>
+  </si>
+  <si>
+    <t>TipoItem</t>
+  </si>
+  <si>
+    <t>Apresentacoes</t>
+  </si>
+  <si>
+    <t>UnidadesDose</t>
+  </si>
+  <si>
+    <t>DescricaoCompleta</t>
+  </si>
+  <si>
+    <t>PrescricoesPadronizadasJSON</t>
+  </si>
+  <si>
+    <t>ObservacaoPadrao</t>
+  </si>
+  <si>
+    <t>Medicamento</t>
+  </si>
+  <si>
+    <t>Complexo</t>
+  </si>
+  <si>
+    <t>Dieta via oral conforme prescrição nutricional</t>
+  </si>
+  <si>
+    <t>Simples</t>
+  </si>
+  <si>
+    <t>1g/frasco</t>
+  </si>
+  <si>
+    <t>g; mg</t>
+  </si>
+  <si>
+    <t>Dieta via oral</t>
+  </si>
+  <si>
+    <t>Monitorização</t>
+  </si>
+  <si>
+    <t>Cuidados da enfermagem</t>
+  </si>
+  <si>
+    <t>Sinais vitais</t>
+  </si>
+  <si>
+    <t>Sinais vitais de 2 em 2 horas</t>
+  </si>
+  <si>
+    <t>Sinais vitais de 6 em 6 horas</t>
+  </si>
+  <si>
+    <t>Via EV: Correr em 30 minutos</t>
+  </si>
+  <si>
+    <t>25 mg Comp;
+50 mg Comp</t>
+  </si>
+  <si>
+    <t>mg; Comp</t>
+  </si>
+  <si>
+    <t>Fentanil</t>
+  </si>
+  <si>
+    <t>mcg; ml</t>
+  </si>
+  <si>
+    <t>Dieta</t>
+  </si>
+  <si>
+    <t>Midazolam</t>
+  </si>
+  <si>
+    <t>5 mg/ml Amp 3 ml;
+5 mg/ml Amp 10 ml</t>
+  </si>
+  <si>
+    <t>50 mcg/ml Amp 2 ml;
+50 mcg/ml Amp 2 ml</t>
+  </si>
+  <si>
+    <t>mg; ml</t>
+  </si>
+  <si>
+    <t>Cloreto de sódio</t>
+  </si>
+  <si>
+    <t>ml; frasco</t>
+  </si>
+  <si>
+    <t>0,9% (100 ml);
+0,9% (250 ml);
+0,9% (500 ml);
+0,9% (1000 ml);</t>
+  </si>
+  <si>
+    <t>Cuidados com posicionamento</t>
+  </si>
+  <si>
+    <t>Cabeceira elevada em 30°</t>
+  </si>
+  <si>
+    <t>Prevenção de úlcera de pressão</t>
+  </si>
+  <si>
+    <t>Mudança de posição de 6 em 6 horas</t>
+  </si>
+  <si>
+    <t>Oxigenoterapia</t>
+  </si>
+  <si>
+    <t>Cateter nasal à 2 L/min, se SatO2 &lt; 94%</t>
+  </si>
+  <si>
+    <t>Hipodermóclise</t>
+  </si>
+  <si>
+    <t>Inalatório</t>
+  </si>
+  <si>
+    <t>Agora</t>
+  </si>
+  <si>
+    <t>Dose única imediata</t>
+  </si>
+  <si>
+    <t>Dose única</t>
+  </si>
+  <si>
+    <t>1/1h</t>
+  </si>
+  <si>
+    <t>2/2h</t>
+  </si>
+  <si>
+    <t>3/3h</t>
+  </si>
+  <si>
+    <t>4/4h</t>
+  </si>
+  <si>
+    <t>6/6h</t>
+  </si>
+  <si>
+    <t>8/8h</t>
+  </si>
+  <si>
+    <t>12/12h</t>
+  </si>
+  <si>
+    <t>24/24h</t>
+  </si>
+  <si>
+    <t>1x dia</t>
+  </si>
+  <si>
+    <t>1 vez ao dia</t>
+  </si>
+  <si>
+    <t>2x dia</t>
+  </si>
+  <si>
+    <t>2 vezes ao dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3x dia </t>
+  </si>
+  <si>
+    <t>3 vezes ao dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x dia </t>
+  </si>
+  <si>
+    <t>4 vezes ao dia</t>
+  </si>
+  <si>
+    <t>1x semana</t>
+  </si>
+  <si>
+    <t>1 vez por semana</t>
+  </si>
+  <si>
+    <t>2x semana</t>
+  </si>
+  <si>
+    <t>2 vezes por semana</t>
+  </si>
+  <si>
+    <t>3x semana</t>
+  </si>
+  <si>
+    <t>3 vezes por semana</t>
+  </si>
+  <si>
+    <t>De 24 em 24 horas</t>
+  </si>
+  <si>
+    <t>De 1 em 1 hora</t>
+  </si>
+  <si>
+    <t>De 2 em 2 horas</t>
+  </si>
+  <si>
+    <t>De 8 em 8 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 3 em 3 horas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 4 em 4 horas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 6 em 6 horas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 12 em 12 horas </t>
+  </si>
+  <si>
+    <t>48/38h</t>
+  </si>
+  <si>
+    <t>De 48 em 48 horas</t>
+  </si>
+  <si>
+    <t>72/72h</t>
+  </si>
+  <si>
+    <t>De 72 em 72 horas</t>
+  </si>
+  <si>
+    <t>Via retal</t>
+  </si>
+  <si>
+    <t>Via nasal</t>
+  </si>
+  <si>
+    <t>Via otológica</t>
+  </si>
+  <si>
+    <t>Via oftálmica</t>
+  </si>
 </sst>
 </file>
 
@@ -2200,7 +2640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2213,8 +2653,14 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2222,11 +2668,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2277,11 +2771,91 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2589,9 +3163,172 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+  <a r="2">
+    <v t="s">&lt;dict&gt;</v>
+    <v t="s">&lt;dict&gt;</v>
+  </a>
+  <a r="1">
+    <v t="s">&lt;dict&gt;</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>list</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'list'&gt;</v>
+    <v>list</v>
+    <v>[{'nome': 'Ceftriaxona 1g 12/12h', 'texto': 'Ceftriaxona 1g, 1g (1 frasco), EV, 12/12h', 'componentes': [{'item': 'Cloreto de sódio à 0,9%', 'dose': '100', 'unidade': 'ml'}]}, {'nome': 'Ceftriaxona 2g 24/24h', 'texto': 'Ceftriaxona 1g, 2g (2 frascos), ...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>list</v>
+    <v>4</v>
+    <v>3</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'list'&gt;</v>
+    <v>list</v>
+    <v>[{'nome': 'Fentanil 10 mcg BIC', 'texto': 'Fentanil 50 mcg/ml, 20 ml, BIC, vazão ACM. Concentração: 10 mcg/ml', 'componentes': [{'item': 'Glicose à 5%', 'dose': '80', 'unidade': 'ml'}]}]</v>
+    <v>4</v>
+    <v>2</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'list'&gt;</v>
+    <v>list</v>
+    <v>[{'nome': 'Midazolam 1 mg/ml BIC (150 ml)', 'texto': 'Midazolam 5 mg/ml, 30 ml, BIC, vazão ACM. Concentração: 1 mg/ml', 'componentes': [{'item': 'SF 0,9% ou SG 5%', 'dose': '120', 'unidade': 'ml'}]}, {'nome': 'Midazolam 1 mg/ml BIC (250ml)', 'texto': '...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="5">
+    <spb s="0">
+      <v>2</v>
+      <v>1</v>
+      <v>list</v>
+      <v>arrayPreview</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python fornecido por Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>1</v>
+      <v>1</v>
+      <v>list</v>
+      <v>arrayPreview</v>
+    </spb>
+    <spb s="1">
+      <v>3</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:V158" totalsRowShown="0">
-  <autoFilter ref="A1:V158" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}" name="Tabela1" displayName="Tabela1" ref="A1:V159" totalsRowShown="0">
+  <autoFilter ref="A1:V159" xr:uid="{D533F96B-3659-4560-ACD7-02DCC551E6A1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V158">
     <sortCondition ref="B1:B158"/>
   </sortState>
@@ -2599,10 +3336,10 @@
     <tableColumn id="7" xr3:uid="{EEA224EE-B017-42F5-A417-487E2B86AD5D}" name="ID_Item">
       <calculatedColumnFormula>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FF9AC4B3-0AB1-43C0-813C-9F0FBFCD27C3}" name="NomeBusca" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A4280A1D-29DF-4DF8-BAEB-74D735392255}" name="PrescricaoCompleta" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1C09888C-F0B3-445C-96A7-59EF6CBB8977}" name="Categoria" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E1DAEFD1-96A5-4769-95CA-789E157CF235}" name="Doenca" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{00D107C9-5770-4523-8A77-BC2E8CCDFA3F}" name="OrdemPrioridade"/>
     <tableColumn id="6" xr3:uid="{A2A03C33-701E-4A02-84BD-0D3C40E0270C}" name="FormaFarmaceutica"/>
     <tableColumn id="8" xr3:uid="{037F36DC-527F-4AE8-A6F4-3169AA433215}" name="isCalculable"/>
@@ -2625,103 +3362,145 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9BC025B4-0C86-43DA-9BA8-AD95BA9033CF}" name="Tabela7" displayName="Tabela7" ref="A1:B20" totalsRowShown="0">
+  <autoFilter ref="A1:B20" xr:uid="{9BC025B4-0C86-43DA-9BA8-AD95BA9033CF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CFD77929-9554-43BE-908D-A85767D19E05}" name="Horário"/>
+    <tableColumn id="2" xr3:uid="{371D9874-4C27-4E8A-9C60-1E16D092C8FD}" name="Descrição"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:E6" xr:uid="{7B1BCF4E-F9B8-4BCA-9A1B-734209B09515}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="41">
+    <tableColumn id="5" xr3:uid="{3B85112C-C948-4532-A5A9-B2DC134B2714}" name="ID_Item" dataDxfId="44">
       <calculatedColumnFormula>ROW() - ROW(Tabela2[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{294ACE13-D92E-4E83-AE9A-884FBB3BAD21}" name="NomeBusca" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{57C4FF43-CE4E-4A4E-A745-1D12588CAE36}" name="ConteudoTexto" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{1B0E7410-6713-475C-9274-E8D53C220050}" name="Categoria" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{E775B5FA-D905-41A5-AF49-15CA3264FA30}" name="OrdemPrioridade" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}" name="Tabela57" displayName="Tabela57" ref="A1:E9" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}" name="Tabela57" displayName="Tabela57" ref="A1:E9" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:E9" xr:uid="{F1B6F081-4196-40D7-9E1B-E18AC00A544A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
     <sortCondition ref="E1:E9"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{255D6023-30BF-414A-B3B5-09A8AED4AD40}" name="ID_Item" dataDxfId="34">
+    <tableColumn id="5" xr3:uid="{255D6023-30BF-414A-B3B5-09A8AED4AD40}" name="ID_Item" dataDxfId="37">
       <calculatedColumnFormula>ROW() - ROW(Tabela57[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{8C75D187-576A-41EF-9BC9-337001D161C6}" name="NomeBusca" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{7A836061-FA92-4D6E-A1CB-B0A3080FF4E2}" name="ConteudoTexto" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{9C7516CD-131C-4A90-BC19-727B1919928E}" name="Categoria" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{D9BE6F3B-192E-46DB-ADBD-41AC809A383A}" name="OrdemPrioridade" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{8C75D187-576A-41EF-9BC9-337001D161C6}" name="NomeBusca" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{7A836061-FA92-4D6E-A1CB-B0A3080FF4E2}" name="ConteudoTexto" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{9C7516CD-131C-4A90-BC19-727B1919928E}" name="Categoria" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{D9BE6F3B-192E-46DB-ADBD-41AC809A383A}" name="OrdemPrioridade" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}" name="Tabela8" displayName="Tabela8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:E6" xr:uid="{4EB17778-C096-4FB9-8CEA-CBC90E8CC8E2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C07F2220-FEC5-4C0B-AB14-F80860FCB6A0}" name="ID_Item" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{C07F2220-FEC5-4C0B-AB14-F80860FCB6A0}" name="ID_Item" dataDxfId="30">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F6AB2AED-7D50-4A14-A3D8-3D697CD7C3E6}" name="NomeBusca" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{24DCE466-5828-477A-94D8-8B94F125CA52}" name="ConteudoTexto" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{544BC52C-0699-476B-9E91-F8010861B484}" name="Categoria" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{0A44EF13-A692-417E-90F4-EEE1E0C399BB}" name="OrdemPrioridade" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{F6AB2AED-7D50-4A14-A3D8-3D697CD7C3E6}" name="NomeBusca" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{24DCE466-5828-477A-94D8-8B94F125CA52}" name="ConteudoTexto" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{544BC52C-0699-476B-9E91-F8010861B484}" name="Categoria" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{0A44EF13-A692-417E-90F4-EEE1E0C399BB}" name="OrdemPrioridade" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:D7" xr:uid="{B195B058-C443-4C22-BFDA-1A6D6B3BD53F}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{30594E46-81AD-44D9-A464-0DDB2405FA5F}" name="ID_Item" dataDxfId="23">
       <calculatedColumnFormula>ROW() - ROW(Tabela3[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{CC635276-E45D-489A-B013-B9CB28D05F73}" name="NomeBusca" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C4152665-161D-4E06-A92A-C044706FA22B}" name="ConteudoTexto" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{D73DEA13-D731-4A85-9704-AF815ADF8ECA}" name="Categoria" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}" name="Tabela4" displayName="Tabela4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:D8" xr:uid="{BF31387E-C94D-4214-90A7-3EA03A21E459}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{B03251EF-71D3-4778-9397-49B077E4BE95}" name="ID_Item" dataDxfId="17">
       <calculatedColumnFormula>ROW() - ROW(Tabela4[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{4E29BBAD-C1D6-4B95-B61D-6D2ACC75817D}" name="NomeBusca" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E987E83A-5D1B-4FBA-B949-173B3B767BC5}" name="ConteudoTexto" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5CEF5F95-0ACE-4A9D-B37D-26E33FA9BC59}" name="Categoria" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}" name="Tabela5" displayName="Tabela5" ref="A1:E8" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E8" xr:uid="{913B8A45-8E4C-40E3-89AF-FB1299E38DDE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
     <sortCondition ref="E1:E8"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{FE4827F2-FADA-4522-96C6-C15115BA8429}" name="ID_Item" dataDxfId="11">
       <calculatedColumnFormula>ROW() - ROW(Tabela5[[#Headers],[ID_Item]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{2E3E19EF-E8C4-4174-A6DD-FE62A883B65B}" name="NomeBusca" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A403427C-6D7B-4CAC-8A29-52B0496C1B55}" name="ConteudoTexto" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{495ABE71-9083-4D12-B7AF-769A1DE8A329}" name="Categoria" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B52F07B3-9EB3-4432-9961-0DC5F0D7CABC}" name="OrdemPrioridade" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{ACBDBD77-4F47-4470-9066-42382BF03E43}" name="Tabela10" displayName="Tabela10" ref="A1:I13" totalsRowShown="0">
+  <autoFilter ref="A1:I13" xr:uid="{ACBDBD77-4F47-4470-9066-42382BF03E43}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{CF3203F3-4CFD-4D66-B74A-BC12D8F80FFA}" name="ID">
+      <calculatedColumnFormula>ROW() - ROW(Tabela10[[#Headers],[ID]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{F0A4A9FD-374C-4C54-BB2A-5F28D41CC94F}" name="Categoria"/>
+    <tableColumn id="3" xr3:uid="{FFABFB1D-C8F4-405B-AEE9-D9AD9763CC53}" name="ItemPrincipal"/>
+    <tableColumn id="4" xr3:uid="{A34F1342-A7E3-4126-AD78-872FBDC5E7F9}" name="TipoItem"/>
+    <tableColumn id="5" xr3:uid="{713B817B-AFCD-41AC-9811-678098C3DAA2}" name="Apresentacoes"/>
+    <tableColumn id="6" xr3:uid="{51FD07B6-C473-44E8-86E2-4ADD006B84FE}" name="UnidadesDose"/>
+    <tableColumn id="7" xr3:uid="{27DD1729-7493-4AFC-BA0D-C3C0C3F7994C}" name="DescricaoCompleta"/>
+    <tableColumn id="8" xr3:uid="{25028A68-0087-4AD4-8FAB-FDB2744115FA}" name="PrescricoesPadronizadasJSON"/>
+    <tableColumn id="9" xr3:uid="{78D527DD-27A2-4C60-B2BB-5C8F58225E77}" name="ObservacaoPadrao"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{08C68780-8D11-4E55-B88C-5F8138D4CC5D}" name="Tabela9" displayName="Tabela9" ref="A1:B12" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="A1:B12" xr:uid="{08C68780-8D11-4E55-B88C-5F8138D4CC5D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{150208FE-C1A4-49E1-81FF-1AA10AF0B961}" name="Sigla " dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{79FC3213-8BF9-487D-8478-621C9C80380A}" name="Nome" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3043,10 +3822,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE9DEBA-C453-4102-816C-FDB2AD0D57A3}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:V158"/>
+  <dimension ref="A1:V159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7423,11 +8202,217 @@
         <v>500</v>
       </c>
     </row>
+    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f>ROW() - ROW(Tabela1[[#Headers],[ID_Item]])</f>
+        <v>158</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G159" t="s">
+        <v>257</v>
+      </c>
+      <c r="H159" t="s">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960A8748-E94B-4690-B759-C2243F7BF2D9}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>597</v>
+      </c>
+      <c r="B6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>601</v>
+      </c>
+      <c r="B10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>602</v>
+      </c>
+      <c r="B11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>625</v>
+      </c>
+      <c r="B12" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>627</v>
+      </c>
+      <c r="B13" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>603</v>
+      </c>
+      <c r="B14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>605</v>
+      </c>
+      <c r="B15" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>607</v>
+      </c>
+      <c r="B16" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>609</v>
+      </c>
+      <c r="B17" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>611</v>
+      </c>
+      <c r="B18" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>613</v>
+      </c>
+      <c r="B19" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>615</v>
+      </c>
+      <c r="B20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8152,7 +9137,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8303,4 +9288,417 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFFD9FF-690D-4767-9960-BAF8E0E731BC}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F2" t="s">
+        <v>564</v>
+      </c>
+      <c r="H2" s="12" t="e" cm="1" vm="1">
+        <f t="array" ref="H2">_xlfn._xlws.PY(0,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D3" t="s">
+        <v>562</v>
+      </c>
+      <c r="G3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D6" t="s">
+        <v>562</v>
+      </c>
+      <c r="G6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="F7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="F8" t="s">
+        <v>575</v>
+      </c>
+      <c r="H8" s="12" t="e" cm="1" vm="2">
+        <f t="array" ref="H8">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C9" t="s">
+        <v>577</v>
+      </c>
+      <c r="D9" t="s">
+        <v>560</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="F9" t="s">
+        <v>580</v>
+      </c>
+      <c r="H9" t="e" cm="1" vm="3">
+        <f t="array" ref="H9">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C10" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="F10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C11" t="s">
+        <v>584</v>
+      </c>
+      <c r="D11" t="s">
+        <v>562</v>
+      </c>
+      <c r="G11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>567</v>
+      </c>
+      <c r="C12" t="s">
+        <v>586</v>
+      </c>
+      <c r="D12" t="s">
+        <v>562</v>
+      </c>
+      <c r="G12" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>ROW() - ROW(Tabela10[[#Headers],[ID]])</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>588</v>
+      </c>
+      <c r="C13" t="s">
+        <v>588</v>
+      </c>
+      <c r="D13" t="s">
+        <v>562</v>
+      </c>
+      <c r="G13" t="s">
+        <v>589</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAEBC3F-9249-4D7D-8804-A8B285799DAA}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>